--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_13_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_13_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1101917.400808263</v>
+        <v>1055866.514468954</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12087815.00903386</v>
+        <v>12087815.00903385</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9555550.367705442</v>
+        <v>9555550.36770544</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7118211.15291492</v>
+        <v>7118211.152914919</v>
       </c>
     </row>
     <row r="11">
@@ -1372,73 +1372,73 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>346.5606280711382</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>343.7916929535039</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>214.9972229324664</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>90.253378272592</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>346.5606280711382</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>308.0195363226926</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
       <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>346.5606280711382</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1454,7 +1454,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>87.91262544345052</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
         <v>145.5577298436975</v>
@@ -1469,7 +1469,7 @@
         <v>88.10357856675394</v>
       </c>
       <c r="I12" t="n">
-        <v>29.07268250710404</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,16 +1499,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>130.433252870619</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>75.21347076639486</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.2900132023933</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>149.4166814168865</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>114.4764728907715</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>105.7365574969456</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.665383299064567</v>
+        <v>226.8285015305278</v>
       </c>
       <c r="U13" t="n">
-        <v>284.2670350461492</v>
+        <v>233.2647826686592</v>
       </c>
       <c r="V13" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X13" t="n">
         <v>228.939939463578</v>
@@ -1609,16 +1609,16 @@
         <v>346.5606280711382</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>346.5606280711382</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>301.2978897224122</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>305.2506012050583</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>137.5765846914097</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.9367548623747</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1688,13 +1688,13 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>84.3295545953776</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>29.07268250710404</v>
+        <v>26.91102468064226</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>130.433252870619</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1745,16 +1745,16 @@
         <v>216.236037254839</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1767,19 +1767,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.2900132023933</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>149.4166814168865</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>195.1816537197569</v>
       </c>
       <c r="T16" t="n">
-        <v>226.8285015305278</v>
+        <v>87.63543252257868</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>284.2670350461492</v>
       </c>
       <c r="V16" t="n">
-        <v>185.7227327425053</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>219.8148072196457</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>346.5606280711382</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>92.31384634268373</v>
       </c>
       <c r="E17" t="n">
-        <v>346.5606280711382</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.9367548623747</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>305.2506012050584</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>346.5606280711382</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>346.5606280711382</v>
       </c>
       <c r="Y17" t="n">
-        <v>346.5606280711382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,19 +1922,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
         <v>126.3193451898731</v>
@@ -1973,22 +1973,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>48.44158244182487</v>
       </c>
       <c r="T18" t="n">
-        <v>182.2763302767183</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>216.236037254839</v>
       </c>
       <c r="V18" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>178.3824925358887</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>190.5961130869169</v>
@@ -2004,19 +2004,19 @@
         <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>100.0846655412779</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>95.98106564623417</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.2900132023933</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>105.7365574969456</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>195.1816537197569</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>284.2670350461492</v>
       </c>
       <c r="V19" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
         <v>219.8148072196457</v>
@@ -2083,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>346.5606280711382</v>
       </c>
       <c r="D20" t="n">
-        <v>49.12914823970345</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>346.5606280711382</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>305.2506012050583</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>137.5765846914097</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.9367548623747</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>252.1687414827087</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>346.5606280711382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>126.3193451898731</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>130.433252870619</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>182.2763302767183</v>
+        <v>13.37854460099795</v>
       </c>
       <c r="U21" t="n">
-        <v>20.58795850660801</v>
+        <v>216.236037254839</v>
       </c>
       <c r="V21" t="n">
         <v>226.1116663261494</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.2900132023933</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>105.7365574969456</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>195.1816537197569</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>284.2670350461492</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>245.6199026780747</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>124.0127088414162</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
         <v>390.8378626949542</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>90.253378272592</v>
+        <v>42.5457958178413</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.9367548623747</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>252.1687414827087</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>222.5038023566182</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
         <v>389.6064368699203</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
         <v>166.2900132023933</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>30.49539393255691</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>195.1816537197569</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>226.8285015305278</v>
       </c>
       <c r="U25" t="n">
-        <v>284.2670350461492</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>221.2510248333662</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>378.1144210805207</v>
+        <v>7.912537959618994</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>32.36647516811138</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>308.0195363226926</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>90.253378272592</v>
@@ -2614,16 +2614,16 @@
         <v>252.1687414827087</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="27">
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>105.7365574969456</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>193.691296790796</v>
+        <v>226.8285015305278</v>
       </c>
       <c r="U28" t="n">
         <v>284.2670350461492</v>
@@ -2778,10 +2778,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y28" t="n">
-        <v>219.8148072196457</v>
+        <v>63.47422051328152</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>378.1144210805207</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>198.5412659724726</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>137.5765846914097</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.9367548623747</v>
       </c>
       <c r="U29" t="n">
-        <v>252.1687414827087</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>9.839429611611788</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
         <v>389.6064368699203</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>7.226762962890604</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>114.4764728907715</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>105.7365574969456</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>195.1816537197569</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>226.8285015305278</v>
       </c>
       <c r="U31" t="n">
-        <v>284.2670350461492</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>160.3143133371605</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
         <v>378.1144210805207</v>
@@ -3037,19 +3037,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>306.7308559421674</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.8461786748886</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>308.0195363226926</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>11.38051621160673</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>137.5765846914097</v>
       </c>
       <c r="T32" t="n">
-        <v>212.9367548623747</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>252.1687414827087</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="33">
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.8359435332664</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>105.7365574969456</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>85.09654407954544</v>
       </c>
       <c r="T34" t="n">
         <v>226.8285015305278</v>
       </c>
       <c r="U34" t="n">
-        <v>284.2670350461492</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="35">
@@ -3268,19 +3268,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>346.5606280711382</v>
+        <v>346.5606280711384</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>346.5606280711384</v>
       </c>
       <c r="E35" t="n">
-        <v>346.5606280711382</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>92.31384634268395</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>346.5606280711384</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.9367548623747</v>
       </c>
       <c r="U35" t="n">
-        <v>252.1687414827087</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>66.03300643046973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,22 +3344,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>47.32773446843937</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3395,19 +3395,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>52.58123628098366</v>
+        <v>130.433252870619</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>182.2763302767183</v>
       </c>
       <c r="U36" t="n">
-        <v>216.236037254839</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X36" t="n">
         <v>195.9378182409833</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>60.51244510278475</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>114.4764728907715</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>195.1816537197569</v>
       </c>
       <c r="T37" t="n">
-        <v>226.8285015305278</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>284.2670350461492</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
-        <v>46.23606361446028</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y37" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>346.5606280711382</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>92.31384634268373</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>105.2649930508037</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>212.9367548623747</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>346.5606280711381</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>346.5606280711382</v>
       </c>
       <c r="Y38" t="n">
-        <v>346.5606280711381</v>
+        <v>346.5606280711382</v>
       </c>
     </row>
     <row r="39">
@@ -3584,22 +3584,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E39" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F39" t="n">
-        <v>45.32812273597156</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>126.3193451898731</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>88.10357856675394</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3635,13 +3635,13 @@
         <v>130.433252870619</v>
       </c>
       <c r="T39" t="n">
-        <v>182.2763302767183</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>216.236037254839</v>
+        <v>154.222645072275</v>
       </c>
       <c r="V39" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>238.9027100790231</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="40">
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>29.80909293767285</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.2900132023933</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>120.6142191461232</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>105.7365574969456</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>195.1816537197569</v>
       </c>
       <c r="T40" t="n">
-        <v>226.8285015305278</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>284.2670350461492</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y40" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>40.6015598185373</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>130.8549380911293</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>346.5606280711382</v>
       </c>
       <c r="H41" t="n">
         <v>308.0195363226926</v>
       </c>
       <c r="I41" t="n">
-        <v>90.253378272592</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>346.5606280711382</v>
       </c>
       <c r="X41" t="n">
-        <v>346.5606280711382</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3827,19 +3827,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>17.09491411580824</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F42" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>126.3193451898731</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>88.10357856675394</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>29.07268250710404</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>130.433252870619</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>182.2763302767183</v>
@@ -3881,13 +3881,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X42" t="n">
-        <v>195.9378182409833</v>
+        <v>145.2518985511287</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="43">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>166.2900132023933</v>
+        <v>116.9974922135471</v>
       </c>
       <c r="H43" t="n">
-        <v>149.4166814168865</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>114.4764728907715</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>105.7365574969456</v>
       </c>
       <c r="S43" t="n">
         <v>195.1816537197569</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>226.8285015305278</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>284.2670350461492</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>75.32071241732154</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3985,16 +3985,16 @@
         <v>346.5606280711382</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>346.5606280711382</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>346.5606280711382</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>305.2506012050583</v>
       </c>
       <c r="H44" t="n">
-        <v>53.08185972234966</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>252.1687414827087</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>346.5606280711382</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>346.5606280711382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4061,13 +4061,13 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E45" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
         <v>126.3193451898731</v>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>19.33203888551234</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,22 +4106,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>130.433252870619</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>182.2763302767183</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>216.236037254839</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W45" t="n">
-        <v>30.26008735683948</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X45" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.2900132023933</v>
       </c>
       <c r="H46" t="n">
-        <v>133.2548677203531</v>
+        <v>149.4166814168865</v>
       </c>
       <c r="I46" t="n">
-        <v>114.4764728907715</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>105.7365574969456</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>195.1816537197569</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>226.8285015305278</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>284.2670350461492</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>216.6854817017411</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1036.181271808656</v>
+        <v>686.1200313327583</v>
       </c>
       <c r="C11" t="n">
-        <v>1036.181271808656</v>
+        <v>336.0587908568612</v>
       </c>
       <c r="D11" t="n">
-        <v>1036.181271808656</v>
+        <v>336.0587908568612</v>
       </c>
       <c r="E11" t="n">
-        <v>688.9169354919849</v>
+        <v>336.0587908568612</v>
       </c>
       <c r="F11" t="n">
-        <v>338.8556950160877</v>
+        <v>118.8898788038648</v>
       </c>
       <c r="G11" t="n">
-        <v>338.8556950160877</v>
+        <v>118.8898788038648</v>
       </c>
       <c r="H11" t="n">
-        <v>27.72485024569106</v>
+        <v>118.8898788038648</v>
       </c>
       <c r="I11" t="n">
         <v>27.72485024569106</v>
@@ -5080,13 +5080,13 @@
         <v>1386.242512284553</v>
       </c>
       <c r="W11" t="n">
-        <v>1386.242512284553</v>
+        <v>1036.181271808656</v>
       </c>
       <c r="X11" t="n">
         <v>1036.181271808656</v>
       </c>
       <c r="Y11" t="n">
-        <v>1036.181271808656</v>
+        <v>686.1200313327583</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>805.9061206012045</v>
+        <v>826.5777798831597</v>
       </c>
       <c r="C12" t="n">
-        <v>644.2024478421592</v>
+        <v>664.8741071241144</v>
       </c>
       <c r="D12" t="n">
-        <v>555.4018160810981</v>
+        <v>526.0354701143265</v>
       </c>
       <c r="E12" t="n">
-        <v>408.3738061379694</v>
+        <v>379.0074601711976</v>
       </c>
       <c r="F12" t="n">
-        <v>273.6800080878437</v>
+        <v>244.313662121072</v>
       </c>
       <c r="G12" t="n">
-        <v>146.0847099162547</v>
+        <v>116.7183639494829</v>
       </c>
       <c r="H12" t="n">
-        <v>57.09119621246282</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="I12" t="n">
         <v>27.72485024569106</v>
       </c>
       <c r="J12" t="n">
-        <v>30.63200584196891</v>
+        <v>192.9111683250751</v>
       </c>
       <c r="K12" t="n">
-        <v>249.9208044143757</v>
+        <v>261.3807553730458</v>
       </c>
       <c r="L12" t="n">
-        <v>593.0158262048025</v>
+        <v>391.0836295194621</v>
       </c>
       <c r="M12" t="n">
-        <v>760.1004180342899</v>
+        <v>558.1682213489495</v>
       </c>
       <c r="N12" t="n">
-        <v>1103.195439824717</v>
+        <v>741.3820691424884</v>
       </c>
       <c r="O12" t="n">
-        <v>1252.746733226337</v>
+        <v>890.9333625441091</v>
       </c>
       <c r="P12" t="n">
-        <v>1357.0667145334</v>
+        <v>1076.334014106394</v>
       </c>
       <c r="Q12" t="n">
-        <v>1386.242512284553</v>
+        <v>1375.879281173585</v>
       </c>
       <c r="R12" t="n">
         <v>1386.242512284553</v>
       </c>
       <c r="S12" t="n">
-        <v>1386.242512284553</v>
+        <v>1254.49175180918</v>
       </c>
       <c r="T12" t="n">
-        <v>1386.242512284553</v>
+        <v>1178.518549014842</v>
       </c>
       <c r="U12" t="n">
-        <v>1386.242512284553</v>
+        <v>1178.518549014842</v>
       </c>
       <c r="V12" t="n">
-        <v>1157.846889732887</v>
+        <v>1178.518549014842</v>
       </c>
       <c r="W12" t="n">
-        <v>1157.846889732887</v>
+        <v>1178.518549014842</v>
       </c>
       <c r="X12" t="n">
-        <v>1157.846889732887</v>
+        <v>1178.518549014842</v>
       </c>
       <c r="Y12" t="n">
-        <v>965.3255633824655</v>
+        <v>985.9972226644206</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>498.6295156149579</v>
+        <v>143.3576511454603</v>
       </c>
       <c r="C13" t="n">
-        <v>498.6295156149579</v>
+        <v>143.3576511454603</v>
       </c>
       <c r="D13" t="n">
-        <v>498.6295156149579</v>
+        <v>143.3576511454603</v>
       </c>
       <c r="E13" t="n">
-        <v>346.6205013762767</v>
+        <v>143.3576511454603</v>
       </c>
       <c r="F13" t="n">
-        <v>346.6205013762767</v>
+        <v>143.3576511454603</v>
       </c>
       <c r="G13" t="n">
-        <v>178.6507910708289</v>
+        <v>143.3576511454603</v>
       </c>
       <c r="H13" t="n">
-        <v>27.72485024569106</v>
+        <v>143.3576511454603</v>
       </c>
       <c r="I13" t="n">
         <v>27.72485024569106</v>
       </c>
       <c r="J13" t="n">
-        <v>34.69382298257747</v>
+        <v>34.69382298257744</v>
       </c>
       <c r="K13" t="n">
         <v>176.4786849811306</v>
@@ -5208,10 +5208,10 @@
         <v>415.5197821238346</v>
       </c>
       <c r="M13" t="n">
-        <v>679.4725500793054</v>
+        <v>679.4725500793053</v>
       </c>
       <c r="N13" t="n">
-        <v>940.3835686454993</v>
+        <v>940.3835686454988</v>
       </c>
       <c r="O13" t="n">
         <v>1170.458570641955</v>
@@ -5223,28 +5223,28 @@
         <v>1386.242512284553</v>
       </c>
       <c r="R13" t="n">
-        <v>1279.437908752285</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="S13" t="n">
-        <v>1279.437908752285</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="T13" t="n">
-        <v>1277.755703399694</v>
+        <v>1157.122813768868</v>
       </c>
       <c r="U13" t="n">
-        <v>990.6172841611594</v>
+        <v>921.5018211742629</v>
       </c>
       <c r="V13" t="n">
-        <v>729.8819797195821</v>
+        <v>660.7665167326854</v>
       </c>
       <c r="W13" t="n">
-        <v>729.8819797195821</v>
+        <v>374.6101152500845</v>
       </c>
       <c r="X13" t="n">
-        <v>498.6295156149579</v>
+        <v>143.3576511454603</v>
       </c>
       <c r="Y13" t="n">
-        <v>498.6295156149579</v>
+        <v>143.3576511454603</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>332.0661529956024</v>
+        <v>686.1200313327583</v>
       </c>
       <c r="C14" t="n">
-        <v>332.0661529956024</v>
+        <v>336.0587908568612</v>
       </c>
       <c r="D14" t="n">
-        <v>332.0661529956024</v>
+        <v>336.0587908568612</v>
       </c>
       <c r="E14" t="n">
-        <v>27.72485024569106</v>
+        <v>336.0587908568612</v>
       </c>
       <c r="F14" t="n">
         <v>27.72485024569106</v>
@@ -5284,19 +5284,19 @@
         <v>145.2918203700023</v>
       </c>
       <c r="L14" t="n">
-        <v>283.2240701807552</v>
+        <v>488.3868421604291</v>
       </c>
       <c r="M14" t="n">
-        <v>462.4316927178253</v>
+        <v>831.4818639508559</v>
       </c>
       <c r="N14" t="n">
-        <v>648.2878012511479</v>
+        <v>1063.728175337108</v>
       </c>
       <c r="O14" t="n">
-        <v>812.9515545168572</v>
+        <v>1228.391928602818</v>
       </c>
       <c r="P14" t="n">
-        <v>1156.046576307284</v>
+        <v>1340.896569186627</v>
       </c>
       <c r="Q14" t="n">
         <v>1386.242512284553</v>
@@ -5305,25 +5305,25 @@
         <v>1386.242512284553</v>
       </c>
       <c r="S14" t="n">
-        <v>1247.276265121513</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="T14" t="n">
-        <v>1032.188633947397</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="U14" t="n">
-        <v>1032.188633947397</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="V14" t="n">
-        <v>1032.188633947397</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="W14" t="n">
-        <v>1032.188633947397</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="X14" t="n">
-        <v>682.1273934714995</v>
+        <v>1036.181271808656</v>
       </c>
       <c r="Y14" t="n">
-        <v>682.1273934714995</v>
+        <v>1036.181271808656</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>442.8148742594553</v>
+        <v>340.7743504113777</v>
       </c>
       <c r="C15" t="n">
-        <v>281.1112015004099</v>
+        <v>340.7743504113777</v>
       </c>
       <c r="D15" t="n">
-        <v>142.272564490622</v>
+        <v>201.9357134015898</v>
       </c>
       <c r="E15" t="n">
-        <v>142.272564490622</v>
+        <v>54.90770345846101</v>
       </c>
       <c r="F15" t="n">
-        <v>142.272564490622</v>
+        <v>54.90770345846101</v>
       </c>
       <c r="G15" t="n">
-        <v>142.272564490622</v>
+        <v>54.90770345846101</v>
       </c>
       <c r="H15" t="n">
-        <v>57.09119621246282</v>
+        <v>54.90770345846101</v>
       </c>
       <c r="I15" t="n">
         <v>27.72485024569106</v>
       </c>
       <c r="J15" t="n">
-        <v>30.63200584196891</v>
+        <v>192.9111683250751</v>
       </c>
       <c r="K15" t="n">
-        <v>373.7270276323957</v>
+        <v>342.4614256282682</v>
       </c>
       <c r="L15" t="n">
-        <v>503.429901778812</v>
+        <v>472.1642997746844</v>
       </c>
       <c r="M15" t="n">
-        <v>670.5144936082994</v>
+        <v>639.2488916041718</v>
       </c>
       <c r="N15" t="n">
-        <v>853.7283414018383</v>
+        <v>822.4627393977107</v>
       </c>
       <c r="O15" t="n">
-        <v>1196.823363192265</v>
+        <v>972.0140327993313</v>
       </c>
       <c r="P15" t="n">
-        <v>1346.703483422432</v>
+        <v>1076.334014106394</v>
       </c>
       <c r="Q15" t="n">
         <v>1375.879281173585</v>
@@ -5384,25 +5384,25 @@
         <v>1386.242512284553</v>
       </c>
       <c r="S15" t="n">
-        <v>1254.49175180918</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="T15" t="n">
-        <v>1254.49175180918</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="U15" t="n">
-        <v>1036.071512157827</v>
+        <v>1167.8222726332</v>
       </c>
       <c r="V15" t="n">
-        <v>1036.071512157827</v>
+        <v>939.426650081534</v>
       </c>
       <c r="W15" t="n">
-        <v>794.7556433911374</v>
+        <v>698.1107813148441</v>
       </c>
       <c r="X15" t="n">
-        <v>794.7556433911374</v>
+        <v>500.1937931926386</v>
       </c>
       <c r="Y15" t="n">
-        <v>602.2343170407162</v>
+        <v>500.1937931926386</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>516.2364709145965</v>
+        <v>330.6598053095101</v>
       </c>
       <c r="C16" t="n">
-        <v>346.6205013762767</v>
+        <v>330.6598053095101</v>
       </c>
       <c r="D16" t="n">
-        <v>346.6205013762767</v>
+        <v>330.6598053095101</v>
       </c>
       <c r="E16" t="n">
-        <v>346.6205013762767</v>
+        <v>178.6507910708289</v>
       </c>
       <c r="F16" t="n">
-        <v>346.6205013762767</v>
+        <v>178.6507910708289</v>
       </c>
       <c r="G16" t="n">
         <v>178.6507910708289</v>
@@ -5442,13 +5442,13 @@
         <v>176.4786849811306</v>
       </c>
       <c r="L16" t="n">
-        <v>415.5197821238346</v>
+        <v>415.5197821238345</v>
       </c>
       <c r="M16" t="n">
-        <v>679.4725500793053</v>
+        <v>679.4725500793052</v>
       </c>
       <c r="N16" t="n">
-        <v>940.3835686454992</v>
+        <v>940.3835686454988</v>
       </c>
       <c r="O16" t="n">
         <v>1170.458570641955</v>
@@ -5463,25 +5463,25 @@
         <v>1386.242512284553</v>
       </c>
       <c r="S16" t="n">
-        <v>1386.242512284553</v>
+        <v>1189.089326709041</v>
       </c>
       <c r="T16" t="n">
-        <v>1157.122813768868</v>
+        <v>1100.568687797345</v>
       </c>
       <c r="U16" t="n">
-        <v>1157.122813768868</v>
+        <v>813.4302685588104</v>
       </c>
       <c r="V16" t="n">
-        <v>969.5240938269436</v>
+        <v>552.694964117233</v>
       </c>
       <c r="W16" t="n">
-        <v>969.5240938269436</v>
+        <v>552.694964117233</v>
       </c>
       <c r="X16" t="n">
-        <v>738.2716297223194</v>
+        <v>552.694964117233</v>
       </c>
       <c r="Y16" t="n">
-        <v>516.2364709145965</v>
+        <v>330.6598053095101</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>377.7860907215883</v>
+        <v>471.0324001586425</v>
       </c>
       <c r="C17" t="n">
-        <v>377.7860907215883</v>
+        <v>120.9711596827453</v>
       </c>
       <c r="D17" t="n">
-        <v>377.7860907215883</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="E17" t="n">
         <v>27.72485024569106</v>
@@ -5515,28 +5515,28 @@
         <v>27.72485024569106</v>
       </c>
       <c r="J17" t="n">
-        <v>58.27700866085739</v>
+        <v>275.9043523873164</v>
       </c>
       <c r="K17" t="n">
-        <v>401.3720304512842</v>
+        <v>519.1727868676021</v>
       </c>
       <c r="L17" t="n">
-        <v>539.3042802620372</v>
+        <v>657.1050366783551</v>
       </c>
       <c r="M17" t="n">
-        <v>718.5119027991072</v>
+        <v>836.3126592154251</v>
       </c>
       <c r="N17" t="n">
-        <v>1061.606924589534</v>
+        <v>1022.168767748748</v>
       </c>
       <c r="O17" t="n">
-        <v>1226.270677855244</v>
+        <v>1186.832521014457</v>
       </c>
       <c r="P17" t="n">
-        <v>1338.775318439053</v>
+        <v>1299.337161598266</v>
       </c>
       <c r="Q17" t="n">
-        <v>1386.242512284553</v>
+        <v>1344.683104696192</v>
       </c>
       <c r="R17" t="n">
         <v>1386.242512284553</v>
@@ -5545,22 +5545,22 @@
         <v>1386.242512284553</v>
       </c>
       <c r="T17" t="n">
-        <v>1386.242512284553</v>
+        <v>1171.154881110437</v>
       </c>
       <c r="U17" t="n">
-        <v>1386.242512284553</v>
+        <v>1171.154881110437</v>
       </c>
       <c r="V17" t="n">
-        <v>1077.908571673383</v>
+        <v>1171.154881110437</v>
       </c>
       <c r="W17" t="n">
-        <v>727.8473311974855</v>
+        <v>821.0936406345397</v>
       </c>
       <c r="X17" t="n">
-        <v>727.8473311974855</v>
+        <v>471.0324001586425</v>
       </c>
       <c r="Y17" t="n">
-        <v>377.7860907215883</v>
+        <v>471.0324001586425</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>184.6864943840519</v>
+        <v>766.9506121461395</v>
       </c>
       <c r="C18" t="n">
-        <v>184.6864943840519</v>
+        <v>605.2469393870942</v>
       </c>
       <c r="D18" t="n">
-        <v>184.6864943840519</v>
+        <v>466.4083023773063</v>
       </c>
       <c r="E18" t="n">
-        <v>184.6864943840519</v>
+        <v>319.3802924341775</v>
       </c>
       <c r="F18" t="n">
         <v>184.6864943840519</v>
@@ -5594,25 +5594,25 @@
         <v>27.72485024569106</v>
       </c>
       <c r="J18" t="n">
-        <v>30.63200584196891</v>
+        <v>192.9111683250751</v>
       </c>
       <c r="K18" t="n">
-        <v>373.7270276323957</v>
+        <v>261.3807553730458</v>
       </c>
       <c r="L18" t="n">
-        <v>503.429901778812</v>
+        <v>391.0836295194621</v>
       </c>
       <c r="M18" t="n">
-        <v>846.5249235692388</v>
+        <v>558.1682213489495</v>
       </c>
       <c r="N18" t="n">
-        <v>1029.738771362778</v>
+        <v>741.3820691424884</v>
       </c>
       <c r="O18" t="n">
-        <v>1179.290064764398</v>
+        <v>890.9333625441091</v>
       </c>
       <c r="P18" t="n">
-        <v>1283.610046071461</v>
+        <v>1086.697245217362</v>
       </c>
       <c r="Q18" t="n">
         <v>1386.242512284553</v>
@@ -5621,25 +5621,25 @@
         <v>1386.242512284553</v>
       </c>
       <c r="S18" t="n">
-        <v>1386.242512284553</v>
+        <v>1337.311620929174</v>
       </c>
       <c r="T18" t="n">
-        <v>1202.125006954534</v>
+        <v>1337.311620929174</v>
       </c>
       <c r="U18" t="n">
-        <v>983.7047673031816</v>
+        <v>1118.891381277821</v>
       </c>
       <c r="V18" t="n">
-        <v>755.3091447515155</v>
+        <v>1118.891381277821</v>
       </c>
       <c r="W18" t="n">
-        <v>575.1248088566784</v>
+        <v>1118.891381277821</v>
       </c>
       <c r="X18" t="n">
-        <v>377.207820734473</v>
+        <v>1118.891381277821</v>
       </c>
       <c r="Y18" t="n">
-        <v>184.6864943840519</v>
+        <v>926.3700549274004</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>128.8204720045577</v>
+        <v>462.2611014492911</v>
       </c>
       <c r="C19" t="n">
-        <v>128.8204720045577</v>
+        <v>292.6451319109714</v>
       </c>
       <c r="D19" t="n">
-        <v>128.8204720045577</v>
+        <v>292.6451319109714</v>
       </c>
       <c r="E19" t="n">
-        <v>27.72485024569106</v>
+        <v>292.6451319109714</v>
       </c>
       <c r="F19" t="n">
-        <v>27.72485024569106</v>
+        <v>195.6945605511389</v>
       </c>
       <c r="G19" t="n">
         <v>27.72485024569106</v>
@@ -5673,19 +5673,19 @@
         <v>27.72485024569106</v>
       </c>
       <c r="J19" t="n">
-        <v>34.69382298257756</v>
+        <v>34.69382298257744</v>
       </c>
       <c r="K19" t="n">
-        <v>176.4786849811308</v>
+        <v>176.4786849811306</v>
       </c>
       <c r="L19" t="n">
-        <v>415.5197821238347</v>
+        <v>415.5197821238346</v>
       </c>
       <c r="M19" t="n">
-        <v>679.4725500793053</v>
+        <v>679.4725500793054</v>
       </c>
       <c r="N19" t="n">
-        <v>940.3835686454991</v>
+        <v>940.3835686454992</v>
       </c>
       <c r="O19" t="n">
         <v>1170.458570641955</v>
@@ -5697,28 +5697,28 @@
         <v>1386.242512284553</v>
       </c>
       <c r="R19" t="n">
-        <v>1279.437908752285</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="S19" t="n">
-        <v>1082.284723176773</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="T19" t="n">
-        <v>1082.284723176773</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="U19" t="n">
-        <v>795.1463039382379</v>
+        <v>1099.104093046018</v>
       </c>
       <c r="V19" t="n">
-        <v>534.4109994966605</v>
+        <v>1099.104093046018</v>
       </c>
       <c r="W19" t="n">
-        <v>534.4109994966605</v>
+        <v>1099.104093046018</v>
       </c>
       <c r="X19" t="n">
-        <v>534.4109994966605</v>
+        <v>867.8516289413939</v>
       </c>
       <c r="Y19" t="n">
-        <v>312.3758406889375</v>
+        <v>645.8164701336709</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>77.35025250801777</v>
+        <v>1036.181271808656</v>
       </c>
       <c r="C20" t="n">
-        <v>77.35025250801777</v>
+        <v>686.1200313327583</v>
       </c>
       <c r="D20" t="n">
-        <v>27.72485024569106</v>
+        <v>686.1200313327583</v>
       </c>
       <c r="E20" t="n">
-        <v>27.72485024569106</v>
+        <v>336.0587908568612</v>
       </c>
       <c r="F20" t="n">
         <v>27.72485024569106</v>
@@ -5752,25 +5752,25 @@
         <v>27.72485024569106</v>
       </c>
       <c r="J20" t="n">
-        <v>275.9043523873164</v>
+        <v>58.27700866085739</v>
       </c>
       <c r="K20" t="n">
-        <v>362.9191640964613</v>
+        <v>287.4828014766658</v>
       </c>
       <c r="L20" t="n">
-        <v>534.777045013359</v>
+        <v>425.4150512874188</v>
       </c>
       <c r="M20" t="n">
-        <v>877.8720668037859</v>
+        <v>604.6226738244889</v>
       </c>
       <c r="N20" t="n">
-        <v>1063.728175337108</v>
+        <v>790.4787823578115</v>
       </c>
       <c r="O20" t="n">
-        <v>1228.391928602818</v>
+        <v>955.1425356235208</v>
       </c>
       <c r="P20" t="n">
-        <v>1340.896569186627</v>
+        <v>1067.64717620733</v>
       </c>
       <c r="Q20" t="n">
         <v>1386.242512284553</v>
@@ -5779,25 +5779,25 @@
         <v>1386.242512284553</v>
       </c>
       <c r="S20" t="n">
-        <v>1247.276265121513</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="T20" t="n">
-        <v>1032.188633947397</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="U20" t="n">
-        <v>777.4727334598122</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="V20" t="n">
-        <v>777.4727334598122</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="W20" t="n">
-        <v>427.411492983915</v>
+        <v>1036.181271808656</v>
       </c>
       <c r="X20" t="n">
-        <v>427.411492983915</v>
+        <v>1036.181271808656</v>
       </c>
       <c r="Y20" t="n">
-        <v>77.35025250801777</v>
+        <v>1036.181271808656</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>189.4285230047363</v>
+        <v>294.158785427068</v>
       </c>
       <c r="C21" t="n">
-        <v>27.72485024569106</v>
+        <v>294.158785427068</v>
       </c>
       <c r="D21" t="n">
-        <v>27.72485024569106</v>
+        <v>155.3201484172801</v>
       </c>
       <c r="E21" t="n">
-        <v>27.72485024569106</v>
+        <v>155.3201484172801</v>
       </c>
       <c r="F21" t="n">
-        <v>27.72485024569106</v>
+        <v>155.3201484172801</v>
       </c>
       <c r="G21" t="n">
         <v>27.72485024569106</v>
@@ -5831,22 +5831,22 @@
         <v>27.72485024569106</v>
       </c>
       <c r="J21" t="n">
-        <v>30.63200584196891</v>
+        <v>192.9111683250751</v>
       </c>
       <c r="K21" t="n">
-        <v>99.10159288993961</v>
+        <v>342.4614256282682</v>
       </c>
       <c r="L21" t="n">
-        <v>442.1966146803665</v>
+        <v>472.1642997746844</v>
       </c>
       <c r="M21" t="n">
-        <v>609.2812065098539</v>
+        <v>639.2488916041718</v>
       </c>
       <c r="N21" t="n">
-        <v>792.4950543033927</v>
+        <v>822.4627393977107</v>
       </c>
       <c r="O21" t="n">
-        <v>942.0463477050134</v>
+        <v>972.0140327993313</v>
       </c>
       <c r="P21" t="n">
         <v>1076.334014106394</v>
@@ -5858,25 +5858,25 @@
         <v>1386.242512284553</v>
       </c>
       <c r="S21" t="n">
-        <v>1254.49175180918</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="T21" t="n">
-        <v>1070.374246479161</v>
+        <v>1372.728830869403</v>
       </c>
       <c r="U21" t="n">
-        <v>1049.578328795719</v>
+        <v>1154.308591218051</v>
       </c>
       <c r="V21" t="n">
-        <v>821.182706244053</v>
+        <v>925.9129686663846</v>
       </c>
       <c r="W21" t="n">
-        <v>579.866837477363</v>
+        <v>684.5970998996946</v>
       </c>
       <c r="X21" t="n">
-        <v>381.9498493551575</v>
+        <v>486.6801117774892</v>
       </c>
       <c r="Y21" t="n">
-        <v>189.4285230047363</v>
+        <v>294.158785427068</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>197.3408197840108</v>
+        <v>195.6945605511389</v>
       </c>
       <c r="C22" t="n">
-        <v>27.72485024569106</v>
+        <v>195.6945605511389</v>
       </c>
       <c r="D22" t="n">
-        <v>27.72485024569106</v>
+        <v>195.6945605511389</v>
       </c>
       <c r="E22" t="n">
-        <v>27.72485024569106</v>
+        <v>195.6945605511389</v>
       </c>
       <c r="F22" t="n">
-        <v>27.72485024569106</v>
+        <v>195.6945605511389</v>
       </c>
       <c r="G22" t="n">
         <v>27.72485024569106</v>
@@ -5934,28 +5934,28 @@
         <v>1386.242512284553</v>
       </c>
       <c r="R22" t="n">
-        <v>1279.437908752285</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="S22" t="n">
-        <v>1082.284723176773</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="T22" t="n">
-        <v>1082.284723176773</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="U22" t="n">
-        <v>1082.284723176773</v>
+        <v>1099.104093046018</v>
       </c>
       <c r="V22" t="n">
-        <v>1082.284723176773</v>
+        <v>838.3687886044409</v>
       </c>
       <c r="W22" t="n">
-        <v>834.1838113807378</v>
+        <v>552.21238712184</v>
       </c>
       <c r="X22" t="n">
-        <v>602.9313472761136</v>
+        <v>320.9599230172158</v>
       </c>
       <c r="Y22" t="n">
-        <v>380.8961884683906</v>
+        <v>195.6945605511389</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>948.5506044489014</v>
+        <v>1655.11885066185</v>
       </c>
       <c r="C23" t="n">
-        <v>948.5506044489014</v>
+        <v>1273.185091994657</v>
       </c>
       <c r="D23" t="n">
-        <v>948.5506044489014</v>
+        <v>900.3611272218805</v>
       </c>
       <c r="E23" t="n">
-        <v>553.7648845550082</v>
+        <v>505.5754073279873</v>
       </c>
       <c r="F23" t="n">
-        <v>553.7648845550082</v>
+        <v>505.5754073279873</v>
       </c>
       <c r="G23" t="n">
-        <v>139.7788454894641</v>
+        <v>91.5893682624432</v>
       </c>
       <c r="H23" t="n">
-        <v>139.7788454894641</v>
+        <v>91.5893682624432</v>
       </c>
       <c r="I23" t="n">
         <v>48.61381693129037</v>
       </c>
       <c r="J23" t="n">
-        <v>79.1659753464567</v>
+        <v>296.7933190729157</v>
       </c>
       <c r="K23" t="n">
-        <v>583.3559330346906</v>
+        <v>800.9832767611495</v>
       </c>
       <c r="L23" t="n">
-        <v>1184.951917559409</v>
+        <v>938.9155265719024</v>
       </c>
       <c r="M23" t="n">
-        <v>1364.159540096479</v>
+        <v>1118.123149108972</v>
       </c>
       <c r="N23" t="n">
-        <v>1550.015648629801</v>
+        <v>1303.979257642295</v>
       </c>
       <c r="O23" t="n">
-        <v>1858.685325466085</v>
+        <v>1585.435932486788</v>
       </c>
       <c r="P23" t="n">
-        <v>2385.344903466593</v>
+        <v>2112.095510487295</v>
       </c>
       <c r="Q23" t="n">
         <v>2430.690846564518</v>
@@ -6019,22 +6019,22 @@
         <v>2430.690846564518</v>
       </c>
       <c r="T23" t="n">
-        <v>2215.603215390403</v>
+        <v>2430.690846564518</v>
       </c>
       <c r="U23" t="n">
-        <v>1960.887314902818</v>
+        <v>2430.690846564518</v>
       </c>
       <c r="V23" t="n">
-        <v>1960.887314902818</v>
+        <v>2430.690846564518</v>
       </c>
       <c r="W23" t="n">
-        <v>1960.887314902818</v>
+        <v>2430.690846564518</v>
       </c>
       <c r="X23" t="n">
-        <v>1736.135999391082</v>
+        <v>2048.660706086011</v>
       </c>
       <c r="Y23" t="n">
-        <v>1342.59414396692</v>
+        <v>1655.11885066185</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>166.9736766018541</v>
       </c>
       <c r="H24" t="n">
-        <v>77.98016289806219</v>
+        <v>77.98016289806213</v>
       </c>
       <c r="I24" t="n">
         <v>48.61381693129037</v>
       </c>
       <c r="J24" t="n">
-        <v>51.52097252756822</v>
+        <v>213.8001350106744</v>
       </c>
       <c r="K24" t="n">
-        <v>460.3573196107276</v>
+        <v>622.6364820938338</v>
       </c>
       <c r="L24" t="n">
-        <v>590.0601937571439</v>
+        <v>1106.751050815051</v>
       </c>
       <c r="M24" t="n">
-        <v>757.1447855866313</v>
+        <v>1273.835642644538</v>
       </c>
       <c r="N24" t="n">
-        <v>1358.74077011135</v>
+        <v>1457.049490438077</v>
       </c>
       <c r="O24" t="n">
-        <v>1876.970253155735</v>
+        <v>1606.600783839698</v>
       </c>
       <c r="P24" t="n">
-        <v>2391.151817702397</v>
+        <v>2120.782348386359</v>
       </c>
       <c r="Q24" t="n">
         <v>2420.32761545355</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>216.5835272367382</v>
+        <v>399.867610425665</v>
       </c>
       <c r="C25" t="n">
-        <v>216.5835272367382</v>
+        <v>399.867610425665</v>
       </c>
       <c r="D25" t="n">
-        <v>216.5835272367382</v>
+        <v>399.867610425665</v>
       </c>
       <c r="E25" t="n">
-        <v>216.5835272367382</v>
+        <v>399.867610425665</v>
       </c>
       <c r="F25" t="n">
-        <v>216.5835272367382</v>
+        <v>247.3869554514421</v>
       </c>
       <c r="G25" t="n">
-        <v>48.61381693129037</v>
+        <v>79.41724514599431</v>
       </c>
       <c r="H25" t="n">
         <v>48.61381693129037</v>
@@ -6174,25 +6174,25 @@
         <v>1407.131478970152</v>
       </c>
       <c r="S25" t="n">
-        <v>1209.97829339464</v>
+        <v>1407.131478970152</v>
       </c>
       <c r="T25" t="n">
-        <v>1209.97829339464</v>
+        <v>1178.011780454467</v>
       </c>
       <c r="U25" t="n">
-        <v>922.8398741561055</v>
+        <v>1178.011780454467</v>
       </c>
       <c r="V25" t="n">
-        <v>662.104569714528</v>
+        <v>917.27647601289</v>
       </c>
       <c r="W25" t="n">
-        <v>438.6186860444611</v>
+        <v>631.1200745302892</v>
       </c>
       <c r="X25" t="n">
-        <v>438.6186860444611</v>
+        <v>399.867610425665</v>
       </c>
       <c r="Y25" t="n">
-        <v>216.5835272367382</v>
+        <v>399.867610425665</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1674.473768771495</v>
+        <v>561.9224987647675</v>
       </c>
       <c r="C26" t="n">
-        <v>1292.540010104302</v>
+        <v>553.9300361792938</v>
       </c>
       <c r="D26" t="n">
-        <v>1292.540010104302</v>
+        <v>553.9300361792938</v>
       </c>
       <c r="E26" t="n">
-        <v>897.754290210409</v>
+        <v>553.9300361792938</v>
       </c>
       <c r="F26" t="n">
-        <v>483.6030995205793</v>
+        <v>139.7788454894641</v>
       </c>
       <c r="G26" t="n">
-        <v>450.9096902598607</v>
+        <v>139.7788454894641</v>
       </c>
       <c r="H26" t="n">
         <v>139.7788454894641</v>
@@ -6229,16 +6229,16 @@
         <v>296.7933190729157</v>
       </c>
       <c r="K26" t="n">
-        <v>383.8081307820606</v>
+        <v>800.9832767611495</v>
       </c>
       <c r="L26" t="n">
-        <v>521.7403805928136</v>
+        <v>938.9155265719024</v>
       </c>
       <c r="M26" t="n">
-        <v>1029.673824819684</v>
+        <v>1118.123149108972</v>
       </c>
       <c r="N26" t="n">
-        <v>1215.529933353006</v>
+        <v>1303.979257642295</v>
       </c>
       <c r="O26" t="n">
         <v>1817.125917877725</v>
@@ -6262,16 +6262,16 @@
         <v>2037.008698913894</v>
       </c>
       <c r="V26" t="n">
-        <v>2037.008698913894</v>
+        <v>1700.029424809835</v>
       </c>
       <c r="W26" t="n">
-        <v>1674.473768771495</v>
+        <v>1337.494494667436</v>
       </c>
       <c r="X26" t="n">
-        <v>1674.473768771495</v>
+        <v>955.4643541889295</v>
       </c>
       <c r="Y26" t="n">
-        <v>1674.473768771495</v>
+        <v>561.9224987647675</v>
       </c>
     </row>
     <row r="27">
@@ -6287,43 +6287,43 @@
         <v>715.1294197764855</v>
       </c>
       <c r="D27" t="n">
-        <v>576.2907827666977</v>
+        <v>576.2907827666975</v>
       </c>
       <c r="E27" t="n">
-        <v>429.2627728235689</v>
+        <v>429.2627728235686</v>
       </c>
       <c r="F27" t="n">
-        <v>294.5689747734432</v>
+        <v>294.568974773443</v>
       </c>
       <c r="G27" t="n">
-        <v>166.9736766018541</v>
+        <v>166.973676601854</v>
       </c>
       <c r="H27" t="n">
-        <v>77.98016289806219</v>
+        <v>77.9801628980621</v>
       </c>
       <c r="I27" t="n">
         <v>48.61381693129037</v>
       </c>
       <c r="J27" t="n">
-        <v>51.52097252756822</v>
+        <v>213.8001350106744</v>
       </c>
       <c r="K27" t="n">
-        <v>119.9905595755389</v>
+        <v>622.6364820938338</v>
       </c>
       <c r="L27" t="n">
-        <v>249.6934337219552</v>
+        <v>1106.751050815051</v>
       </c>
       <c r="M27" t="n">
-        <v>851.2894182466734</v>
+        <v>1273.835642644538</v>
       </c>
       <c r="N27" t="n">
-        <v>1034.503266040212</v>
+        <v>1457.049490438077</v>
       </c>
       <c r="O27" t="n">
-        <v>1636.099250564931</v>
+        <v>1606.600783839698</v>
       </c>
       <c r="P27" t="n">
-        <v>2150.280815111592</v>
+        <v>2120.782348386359</v>
       </c>
       <c r="Q27" t="n">
         <v>2420.32761545355</v>
@@ -6408,25 +6408,25 @@
         <v>1407.131478970152</v>
       </c>
       <c r="R28" t="n">
-        <v>1300.326875437884</v>
+        <v>1407.131478970152</v>
       </c>
       <c r="S28" t="n">
-        <v>1300.326875437884</v>
+        <v>1407.131478970152</v>
       </c>
       <c r="T28" t="n">
-        <v>1104.679100901726</v>
+        <v>1178.011780454467</v>
       </c>
       <c r="U28" t="n">
-        <v>817.5406816631917</v>
+        <v>890.8733612159328</v>
       </c>
       <c r="V28" t="n">
-        <v>556.8053772216142</v>
+        <v>630.1380567743554</v>
       </c>
       <c r="W28" t="n">
-        <v>270.6489757390133</v>
+        <v>343.9816552917545</v>
       </c>
       <c r="X28" t="n">
-        <v>270.6489757390133</v>
+        <v>112.7291911871303</v>
       </c>
       <c r="Y28" t="n">
         <v>48.61381693129037</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1239.484486182206</v>
+        <v>1440.031219487734</v>
       </c>
       <c r="C29" t="n">
-        <v>857.5507275150133</v>
+        <v>1058.097460820541</v>
       </c>
       <c r="D29" t="n">
-        <v>857.5507275150133</v>
+        <v>1058.097460820541</v>
       </c>
       <c r="E29" t="n">
-        <v>462.76500762112</v>
+        <v>663.3117409266479</v>
       </c>
       <c r="F29" t="n">
-        <v>48.61381693129037</v>
+        <v>249.1605502368182</v>
       </c>
       <c r="G29" t="n">
-        <v>48.61381693129037</v>
+        <v>249.1605502368182</v>
       </c>
       <c r="H29" t="n">
         <v>48.61381693129037</v>
@@ -6466,22 +6466,22 @@
         <v>79.1659753464567</v>
       </c>
       <c r="K29" t="n">
-        <v>583.3559330346906</v>
+        <v>166.1807870556016</v>
       </c>
       <c r="L29" t="n">
-        <v>721.2881828454435</v>
+        <v>767.7767715803199</v>
       </c>
       <c r="M29" t="n">
-        <v>900.4958053825136</v>
+        <v>1369.372756105038</v>
       </c>
       <c r="N29" t="n">
-        <v>1086.351913915836</v>
+        <v>1970.968740629756</v>
       </c>
       <c r="O29" t="n">
-        <v>1687.947898440554</v>
+        <v>2272.840262882784</v>
       </c>
       <c r="P29" t="n">
-        <v>2112.095510487295</v>
+        <v>2385.344903466593</v>
       </c>
       <c r="Q29" t="n">
         <v>2430.690846564518</v>
@@ -6490,25 +6490,25 @@
         <v>2430.690846564518</v>
       </c>
       <c r="S29" t="n">
-        <v>2291.724599401478</v>
+        <v>2430.690846564518</v>
       </c>
       <c r="T29" t="n">
-        <v>2291.724599401478</v>
+        <v>2215.603215390403</v>
       </c>
       <c r="U29" t="n">
-        <v>2037.008698913894</v>
+        <v>2215.603215390403</v>
       </c>
       <c r="V29" t="n">
-        <v>2037.008698913894</v>
+        <v>2215.603215390403</v>
       </c>
       <c r="W29" t="n">
-        <v>2027.069881124387</v>
+        <v>2215.603215390403</v>
       </c>
       <c r="X29" t="n">
-        <v>2027.069881124387</v>
+        <v>1833.573074911896</v>
       </c>
       <c r="Y29" t="n">
-        <v>1633.528025700225</v>
+        <v>1440.031219487734</v>
       </c>
     </row>
     <row r="30">
@@ -6521,22 +6521,22 @@
         <v>876.8330925355307</v>
       </c>
       <c r="C30" t="n">
-        <v>715.1294197764854</v>
+        <v>715.1294197764855</v>
       </c>
       <c r="D30" t="n">
-        <v>576.2907827666975</v>
+        <v>576.2907827666977</v>
       </c>
       <c r="E30" t="n">
-        <v>429.2627728235686</v>
+        <v>429.2627728235689</v>
       </c>
       <c r="F30" t="n">
-        <v>294.568974773443</v>
+        <v>294.5689747734432</v>
       </c>
       <c r="G30" t="n">
         <v>166.973676601854</v>
       </c>
       <c r="H30" t="n">
-        <v>77.98016289806213</v>
+        <v>77.98016289806219</v>
       </c>
       <c r="I30" t="n">
         <v>48.61381693129037</v>
@@ -6563,13 +6563,13 @@
         <v>2238.26376418986</v>
       </c>
       <c r="Q30" t="n">
-        <v>2430.690846564518</v>
+        <v>2420.32761545355</v>
       </c>
       <c r="R30" t="n">
         <v>2430.690846564518</v>
       </c>
       <c r="S30" t="n">
-        <v>2298.940086089145</v>
+        <v>2298.940086089146</v>
       </c>
       <c r="T30" t="n">
         <v>2114.822580759127</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>164.2466178310596</v>
+        <v>225.5295470381865</v>
       </c>
       <c r="C31" t="n">
-        <v>164.2466178310596</v>
+        <v>55.91357749986673</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2466178310596</v>
+        <v>55.91357749986673</v>
       </c>
       <c r="E31" t="n">
-        <v>164.2466178310596</v>
+        <v>55.91357749986673</v>
       </c>
       <c r="F31" t="n">
-        <v>164.2466178310596</v>
+        <v>48.61381693129037</v>
       </c>
       <c r="G31" t="n">
-        <v>164.2466178310596</v>
+        <v>48.61381693129037</v>
       </c>
       <c r="H31" t="n">
-        <v>164.2466178310596</v>
+        <v>48.61381693129037</v>
       </c>
       <c r="I31" t="n">
         <v>48.61381693129037</v>
@@ -6645,28 +6645,28 @@
         <v>1407.131478970152</v>
       </c>
       <c r="R31" t="n">
-        <v>1300.326875437884</v>
+        <v>1407.131478970152</v>
       </c>
       <c r="S31" t="n">
-        <v>1103.173689862372</v>
+        <v>1407.131478970152</v>
       </c>
       <c r="T31" t="n">
-        <v>874.0539913466873</v>
+        <v>1178.011780454467</v>
       </c>
       <c r="U31" t="n">
-        <v>586.9155721081527</v>
+        <v>1178.011780454467</v>
       </c>
       <c r="V31" t="n">
-        <v>326.1802676665753</v>
+        <v>917.27647601289</v>
       </c>
       <c r="W31" t="n">
-        <v>326.1802676665753</v>
+        <v>631.1200745302892</v>
       </c>
       <c r="X31" t="n">
-        <v>326.1802676665753</v>
+        <v>631.1200745302892</v>
       </c>
       <c r="Y31" t="n">
-        <v>164.2466178310596</v>
+        <v>409.0849157225663</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>740.3767230148137</v>
+        <v>1167.159930355239</v>
       </c>
       <c r="C32" t="n">
-        <v>358.4429643476211</v>
+        <v>785.226171688046</v>
       </c>
       <c r="D32" t="n">
-        <v>358.4429643476211</v>
+        <v>785.226171688046</v>
       </c>
       <c r="E32" t="n">
-        <v>48.61381693129037</v>
+        <v>785.226171688046</v>
       </c>
       <c r="F32" t="n">
-        <v>48.61381693129037</v>
+        <v>785.226171688046</v>
       </c>
       <c r="G32" t="n">
-        <v>48.61381693129037</v>
+        <v>371.2401326225018</v>
       </c>
       <c r="H32" t="n">
-        <v>48.61381693129037</v>
+        <v>60.10928785210524</v>
       </c>
       <c r="I32" t="n">
         <v>48.61381693129037</v>
       </c>
       <c r="J32" t="n">
-        <v>79.1659753464567</v>
+        <v>296.7933190729157</v>
       </c>
       <c r="K32" t="n">
-        <v>166.1807870556016</v>
+        <v>800.9832767611495</v>
       </c>
       <c r="L32" t="n">
-        <v>304.1130368663546</v>
+        <v>938.9155265719024</v>
       </c>
       <c r="M32" t="n">
-        <v>483.3206594034247</v>
+        <v>1118.123149108972</v>
       </c>
       <c r="N32" t="n">
-        <v>942.2805403737086</v>
+        <v>1303.979257642295</v>
       </c>
       <c r="O32" t="n">
-        <v>1543.876524898427</v>
+        <v>1858.685325466085</v>
       </c>
       <c r="P32" t="n">
-        <v>2070.536102898934</v>
+        <v>2385.344903466593</v>
       </c>
       <c r="Q32" t="n">
-        <v>2389.131438976157</v>
+        <v>2430.690846564518</v>
       </c>
       <c r="R32" t="n">
         <v>2430.690846564518</v>
@@ -6730,22 +6730,22 @@
         <v>2291.724599401478</v>
       </c>
       <c r="T32" t="n">
-        <v>2076.636968227363</v>
+        <v>2291.724599401478</v>
       </c>
       <c r="U32" t="n">
-        <v>1821.921067739778</v>
+        <v>2291.724599401478</v>
       </c>
       <c r="V32" t="n">
-        <v>1484.941793635719</v>
+        <v>1954.74532529742</v>
       </c>
       <c r="W32" t="n">
-        <v>1122.40686349332</v>
+        <v>1954.74532529742</v>
       </c>
       <c r="X32" t="n">
-        <v>740.3767230148137</v>
+        <v>1954.74532529742</v>
       </c>
       <c r="Y32" t="n">
-        <v>740.3767230148137</v>
+        <v>1561.203469873258</v>
       </c>
     </row>
     <row r="33">
@@ -6758,22 +6758,22 @@
         <v>876.8330925355307</v>
       </c>
       <c r="C33" t="n">
-        <v>715.1294197764855</v>
+        <v>715.1294197764854</v>
       </c>
       <c r="D33" t="n">
-        <v>576.2907827666977</v>
+        <v>576.2907827666975</v>
       </c>
       <c r="E33" t="n">
-        <v>429.2627728235689</v>
+        <v>429.2627728235686</v>
       </c>
       <c r="F33" t="n">
-        <v>294.5689747734432</v>
+        <v>294.568974773443</v>
       </c>
       <c r="G33" t="n">
-        <v>166.9736766018541</v>
+        <v>166.973676601854</v>
       </c>
       <c r="H33" t="n">
-        <v>77.98016289806219</v>
+        <v>77.98016289806213</v>
       </c>
       <c r="I33" t="n">
         <v>48.61381693129037</v>
@@ -6782,22 +6782,22 @@
         <v>51.52097252756822</v>
       </c>
       <c r="K33" t="n">
-        <v>460.3573196107276</v>
+        <v>119.9905595755389</v>
       </c>
       <c r="L33" t="n">
-        <v>1061.953304135446</v>
+        <v>249.6934337219552</v>
       </c>
       <c r="M33" t="n">
-        <v>1229.037895964933</v>
+        <v>684.1415152172667</v>
       </c>
       <c r="N33" t="n">
-        <v>1412.251743758472</v>
+        <v>1285.737499741985</v>
       </c>
       <c r="O33" t="n">
-        <v>1616.964014950666</v>
+        <v>1887.333484266703</v>
       </c>
       <c r="P33" t="n">
-        <v>2131.145579497328</v>
+        <v>2401.515048813365</v>
       </c>
       <c r="Q33" t="n">
         <v>2430.690846564518</v>
@@ -6806,7 +6806,7 @@
         <v>2430.690846564518</v>
       </c>
       <c r="S33" t="n">
-        <v>2298.940086089146</v>
+        <v>2298.940086089145</v>
       </c>
       <c r="T33" t="n">
         <v>2114.822580759127</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>339.7780845577074</v>
+        <v>352.6116509286655</v>
       </c>
       <c r="C34" t="n">
-        <v>199.5397577564282</v>
+        <v>352.6116509286655</v>
       </c>
       <c r="D34" t="n">
         <v>199.5397577564282</v>
@@ -6882,28 +6882,28 @@
         <v>1407.131478970152</v>
       </c>
       <c r="R34" t="n">
-        <v>1300.326875437884</v>
+        <v>1407.131478970152</v>
       </c>
       <c r="S34" t="n">
-        <v>1300.326875437884</v>
+        <v>1321.175373839298</v>
       </c>
       <c r="T34" t="n">
-        <v>1071.207176922199</v>
+        <v>1092.055675323614</v>
       </c>
       <c r="U34" t="n">
-        <v>784.0687576836647</v>
+        <v>1092.055675323614</v>
       </c>
       <c r="V34" t="n">
-        <v>523.3334532420872</v>
+        <v>1092.055675323614</v>
       </c>
       <c r="W34" t="n">
-        <v>523.3334532420872</v>
+        <v>805.8992738410127</v>
       </c>
       <c r="X34" t="n">
-        <v>523.3334532420872</v>
+        <v>574.6468097363885</v>
       </c>
       <c r="Y34" t="n">
-        <v>523.3334532420872</v>
+        <v>352.6116509286655</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>727.8473311974855</v>
+        <v>1171.154881110438</v>
       </c>
       <c r="C35" t="n">
-        <v>377.7860907215883</v>
+        <v>821.0936406345404</v>
       </c>
       <c r="D35" t="n">
-        <v>377.7860907215883</v>
+        <v>471.032400158643</v>
       </c>
       <c r="E35" t="n">
-        <v>27.72485024569106</v>
+        <v>471.032400158643</v>
       </c>
       <c r="F35" t="n">
-        <v>27.72485024569106</v>
+        <v>377.7860907215885</v>
       </c>
       <c r="G35" t="n">
-        <v>27.72485024569106</v>
+        <v>27.72485024569107</v>
       </c>
       <c r="H35" t="n">
-        <v>27.72485024569106</v>
+        <v>27.72485024569107</v>
       </c>
       <c r="I35" t="n">
-        <v>27.72485024569106</v>
+        <v>27.72485024569107</v>
       </c>
       <c r="J35" t="n">
-        <v>217.637172665536</v>
+        <v>158.9085821791611</v>
       </c>
       <c r="K35" t="n">
-        <v>560.7321944559628</v>
+        <v>245.923393888306</v>
       </c>
       <c r="L35" t="n">
-        <v>698.6644442667158</v>
+        <v>383.855643699059</v>
       </c>
       <c r="M35" t="n">
-        <v>877.8720668037859</v>
+        <v>563.063266236129</v>
       </c>
       <c r="N35" t="n">
-        <v>1063.728175337108</v>
+        <v>748.9193747694517</v>
       </c>
       <c r="O35" t="n">
-        <v>1228.391928602818</v>
+        <v>913.5831280351609</v>
       </c>
       <c r="P35" t="n">
-        <v>1340.896569186627</v>
+        <v>1026.08776861897</v>
       </c>
       <c r="Q35" t="n">
-        <v>1386.242512284553</v>
+        <v>1344.683104696193</v>
       </c>
       <c r="R35" t="n">
-        <v>1386.242512284553</v>
+        <v>1386.242512284554</v>
       </c>
       <c r="S35" t="n">
-        <v>1386.242512284553</v>
+        <v>1386.242512284554</v>
       </c>
       <c r="T35" t="n">
-        <v>1386.242512284553</v>
+        <v>1171.154881110438</v>
       </c>
       <c r="U35" t="n">
-        <v>1131.526611796968</v>
+        <v>1171.154881110438</v>
       </c>
       <c r="V35" t="n">
-        <v>794.5473376929094</v>
+        <v>1171.154881110438</v>
       </c>
       <c r="W35" t="n">
-        <v>794.5473376929094</v>
+        <v>1171.154881110438</v>
       </c>
       <c r="X35" t="n">
-        <v>794.5473376929094</v>
+        <v>1171.154881110438</v>
       </c>
       <c r="Y35" t="n">
-        <v>727.8473311974855</v>
+        <v>1171.154881110438</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>336.4565329478651</v>
+        <v>210.2244406881797</v>
       </c>
       <c r="C36" t="n">
-        <v>174.7528601888198</v>
+        <v>210.2244406881797</v>
       </c>
       <c r="D36" t="n">
-        <v>174.7528601888198</v>
+        <v>210.2244406881797</v>
       </c>
       <c r="E36" t="n">
-        <v>27.72485024569106</v>
+        <v>210.2244406881797</v>
       </c>
       <c r="F36" t="n">
-        <v>27.72485024569106</v>
+        <v>75.53064263805408</v>
       </c>
       <c r="G36" t="n">
-        <v>27.72485024569106</v>
+        <v>27.72485024569107</v>
       </c>
       <c r="H36" t="n">
-        <v>27.72485024569106</v>
+        <v>27.72485024569107</v>
       </c>
       <c r="I36" t="n">
-        <v>27.72485024569106</v>
+        <v>27.72485024569107</v>
       </c>
       <c r="J36" t="n">
-        <v>192.9111683250751</v>
+        <v>30.63200584196893</v>
       </c>
       <c r="K36" t="n">
-        <v>261.3807553730458</v>
+        <v>352.8246567392372</v>
       </c>
       <c r="L36" t="n">
-        <v>391.0836295194621</v>
+        <v>482.5275308856535</v>
       </c>
       <c r="M36" t="n">
-        <v>566.5566896454836</v>
+        <v>649.6121227151409</v>
       </c>
       <c r="N36" t="n">
-        <v>909.6517114359104</v>
+        <v>832.8259705086798</v>
       </c>
       <c r="O36" t="n">
-        <v>1252.746733226337</v>
+        <v>982.3772639103004</v>
       </c>
       <c r="P36" t="n">
-        <v>1357.0667145334</v>
+        <v>1086.697245217363</v>
       </c>
       <c r="Q36" t="n">
-        <v>1386.242512284553</v>
+        <v>1386.242512284554</v>
       </c>
       <c r="R36" t="n">
-        <v>1386.242512284553</v>
+        <v>1386.242512284554</v>
       </c>
       <c r="S36" t="n">
-        <v>1333.130152404771</v>
+        <v>1254.491751809181</v>
       </c>
       <c r="T36" t="n">
-        <v>1333.130152404771</v>
+        <v>1070.374246479162</v>
       </c>
       <c r="U36" t="n">
-        <v>1114.709912753419</v>
+        <v>1070.374246479162</v>
       </c>
       <c r="V36" t="n">
-        <v>886.3142902017527</v>
+        <v>841.9786239274963</v>
       </c>
       <c r="W36" t="n">
-        <v>886.3142902017527</v>
+        <v>600.6627551608063</v>
       </c>
       <c r="X36" t="n">
-        <v>688.3973020795472</v>
+        <v>402.7457670386009</v>
       </c>
       <c r="Y36" t="n">
-        <v>495.875975729126</v>
+        <v>210.2244406881797</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>143.3576511454603</v>
+        <v>410.9451566802385</v>
       </c>
       <c r="C37" t="n">
-        <v>143.3576511454603</v>
+        <v>241.3291871419188</v>
       </c>
       <c r="D37" t="n">
-        <v>143.3576511454603</v>
+        <v>241.3291871419188</v>
       </c>
       <c r="E37" t="n">
-        <v>143.3576511454603</v>
+        <v>241.3291871419188</v>
       </c>
       <c r="F37" t="n">
-        <v>143.3576511454603</v>
+        <v>88.84853216769588</v>
       </c>
       <c r="G37" t="n">
-        <v>143.3576511454603</v>
+        <v>27.72485024569107</v>
       </c>
       <c r="H37" t="n">
-        <v>143.3576511454603</v>
+        <v>27.72485024569107</v>
       </c>
       <c r="I37" t="n">
-        <v>27.72485024569106</v>
+        <v>27.72485024569107</v>
       </c>
       <c r="J37" t="n">
-        <v>34.69382298257756</v>
+        <v>34.69382298257749</v>
       </c>
       <c r="K37" t="n">
-        <v>176.4786849811305</v>
+        <v>176.4786849811306</v>
       </c>
       <c r="L37" t="n">
         <v>415.5197821238346</v>
@@ -7107,13 +7107,13 @@
         <v>679.4725500793054</v>
       </c>
       <c r="N37" t="n">
-        <v>940.3835686454992</v>
+        <v>940.3835686454993</v>
       </c>
       <c r="O37" t="n">
         <v>1170.458570641955</v>
       </c>
       <c r="P37" t="n">
-        <v>1346.043305565242</v>
+        <v>1346.043305565243</v>
       </c>
       <c r="Q37" t="n">
         <v>1386.242512284553</v>
@@ -7125,22 +7125,22 @@
         <v>1189.089326709041</v>
       </c>
       <c r="T37" t="n">
-        <v>959.9696281933561</v>
+        <v>1189.089326709041</v>
       </c>
       <c r="U37" t="n">
-        <v>672.8312089548215</v>
+        <v>1189.089326709041</v>
       </c>
       <c r="V37" t="n">
-        <v>412.0959045132441</v>
+        <v>928.3540222674635</v>
       </c>
       <c r="W37" t="n">
-        <v>412.0959045132441</v>
+        <v>642.1976207848627</v>
       </c>
       <c r="X37" t="n">
-        <v>365.3928099531832</v>
+        <v>410.9451566802385</v>
       </c>
       <c r="Y37" t="n">
-        <v>143.3576511454603</v>
+        <v>410.9451566802385</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>27.72485024569105</v>
+        <v>471.0324001586425</v>
       </c>
       <c r="C38" t="n">
-        <v>27.72485024569105</v>
+        <v>471.0324001586425</v>
       </c>
       <c r="D38" t="n">
-        <v>27.72485024569105</v>
+        <v>471.0324001586425</v>
       </c>
       <c r="E38" t="n">
-        <v>27.72485024569105</v>
+        <v>471.0324001586425</v>
       </c>
       <c r="F38" t="n">
-        <v>27.72485024569105</v>
+        <v>120.9711596827453</v>
       </c>
       <c r="G38" t="n">
-        <v>27.72485024569105</v>
+        <v>120.9711596827453</v>
       </c>
       <c r="H38" t="n">
-        <v>27.72485024569105</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="I38" t="n">
-        <v>27.72485024569105</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="J38" t="n">
-        <v>58.27700866085739</v>
+        <v>275.9043523873164</v>
       </c>
       <c r="K38" t="n">
-        <v>355.2853876142452</v>
+        <v>362.9191640964613</v>
       </c>
       <c r="L38" t="n">
-        <v>493.2176374249981</v>
+        <v>500.8514139072142</v>
       </c>
       <c r="M38" t="n">
-        <v>836.3126592154249</v>
+        <v>680.0590364442843</v>
       </c>
       <c r="N38" t="n">
-        <v>1022.168767748748</v>
+        <v>865.9151449776069</v>
       </c>
       <c r="O38" t="n">
-        <v>1186.832521014457</v>
+        <v>1030.578898243316</v>
       </c>
       <c r="P38" t="n">
-        <v>1299.337161598266</v>
+        <v>1143.083538827125</v>
       </c>
       <c r="Q38" t="n">
-        <v>1344.683104696192</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="R38" t="n">
         <v>1386.242512284553</v>
       </c>
       <c r="S38" t="n">
-        <v>1279.91423647566</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="T38" t="n">
-        <v>1064.826605301544</v>
+        <v>1171.154881110437</v>
       </c>
       <c r="U38" t="n">
-        <v>1064.826605301544</v>
+        <v>1171.154881110437</v>
       </c>
       <c r="V38" t="n">
-        <v>727.8473311974853</v>
+        <v>1171.154881110437</v>
       </c>
       <c r="W38" t="n">
-        <v>377.7860907215882</v>
+        <v>1171.154881110437</v>
       </c>
       <c r="X38" t="n">
-        <v>377.7860907215882</v>
+        <v>821.0936406345397</v>
       </c>
       <c r="Y38" t="n">
-        <v>27.72485024569105</v>
+        <v>471.0324001586425</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>382.2425155094526</v>
+        <v>664.8741071241144</v>
       </c>
       <c r="C39" t="n">
-        <v>220.5388427504073</v>
+        <v>664.8741071241144</v>
       </c>
       <c r="D39" t="n">
-        <v>220.5388427504073</v>
+        <v>526.0354701143265</v>
       </c>
       <c r="E39" t="n">
-        <v>73.51083280727849</v>
+        <v>379.0074601711976</v>
       </c>
       <c r="F39" t="n">
-        <v>27.72485024569105</v>
+        <v>244.313662121072</v>
       </c>
       <c r="G39" t="n">
-        <v>27.72485024569105</v>
+        <v>116.7183639494829</v>
       </c>
       <c r="H39" t="n">
-        <v>27.72485024569105</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="I39" t="n">
-        <v>27.72485024569105</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="J39" t="n">
         <v>192.9111683250751</v>
       </c>
       <c r="K39" t="n">
-        <v>261.3807553730458</v>
+        <v>342.4614256282682</v>
       </c>
       <c r="L39" t="n">
-        <v>391.0836295194621</v>
+        <v>472.1642997746844</v>
       </c>
       <c r="M39" t="n">
-        <v>558.1682213489495</v>
+        <v>639.2488916041718</v>
       </c>
       <c r="N39" t="n">
-        <v>741.3820691424884</v>
+        <v>822.4627393977107</v>
       </c>
       <c r="O39" t="n">
-        <v>1084.477090932915</v>
+        <v>972.0140327993313</v>
       </c>
       <c r="P39" t="n">
-        <v>1188.797072239978</v>
+        <v>1076.334014106394</v>
       </c>
       <c r="Q39" t="n">
-        <v>1386.242512284553</v>
+        <v>1375.879281173585</v>
       </c>
       <c r="R39" t="n">
         <v>1386.242512284553</v>
@@ -7283,22 +7283,22 @@
         <v>1254.49175180918</v>
       </c>
       <c r="T39" t="n">
-        <v>1070.374246479161</v>
+        <v>1254.49175180918</v>
       </c>
       <c r="U39" t="n">
-        <v>851.9540068278086</v>
+        <v>1098.711302241225</v>
       </c>
       <c r="V39" t="n">
-        <v>623.5583842761425</v>
+        <v>1098.711302241225</v>
       </c>
       <c r="W39" t="n">
-        <v>382.2425155094526</v>
+        <v>857.3954334745356</v>
       </c>
       <c r="X39" t="n">
-        <v>382.2425155094526</v>
+        <v>857.3954334745356</v>
       </c>
       <c r="Y39" t="n">
-        <v>382.2425155094526</v>
+        <v>664.8741071241144</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>57.83504513222928</v>
+        <v>487.1430746815023</v>
       </c>
       <c r="C40" t="n">
-        <v>57.83504513222928</v>
+        <v>317.5271051431826</v>
       </c>
       <c r="D40" t="n">
-        <v>57.83504513222928</v>
+        <v>317.5271051431826</v>
       </c>
       <c r="E40" t="n">
-        <v>27.72485024569105</v>
+        <v>317.5271051431826</v>
       </c>
       <c r="F40" t="n">
-        <v>27.72485024569105</v>
+        <v>317.5271051431826</v>
       </c>
       <c r="G40" t="n">
-        <v>27.72485024569105</v>
+        <v>149.5573948377347</v>
       </c>
       <c r="H40" t="n">
-        <v>27.72485024569105</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="I40" t="n">
-        <v>27.72485024569105</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="J40" t="n">
         <v>34.69382298257747</v>
@@ -7344,40 +7344,40 @@
         <v>679.4725500793054</v>
       </c>
       <c r="N40" t="n">
-        <v>940.3835686454988</v>
+        <v>940.3835686454993</v>
       </c>
       <c r="O40" t="n">
         <v>1170.458570641955</v>
       </c>
       <c r="P40" t="n">
-        <v>1346.043305565242</v>
+        <v>1346.043305565243</v>
       </c>
       <c r="Q40" t="n">
         <v>1386.242512284553</v>
       </c>
       <c r="R40" t="n">
-        <v>1279.437908752284</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="S40" t="n">
-        <v>1082.284723176772</v>
+        <v>1189.089326709041</v>
       </c>
       <c r="T40" t="n">
-        <v>853.1650246610877</v>
+        <v>1189.089326709041</v>
       </c>
       <c r="U40" t="n">
-        <v>566.0266054225531</v>
+        <v>901.9509074705063</v>
       </c>
       <c r="V40" t="n">
-        <v>566.0266054225531</v>
+        <v>901.9509074705063</v>
       </c>
       <c r="W40" t="n">
-        <v>279.8702039399522</v>
+        <v>901.9509074705063</v>
       </c>
       <c r="X40" t="n">
-        <v>279.8702039399522</v>
+        <v>670.6984433658821</v>
       </c>
       <c r="Y40" t="n">
-        <v>57.83504513222928</v>
+        <v>670.6984433658821</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>430.0207235742614</v>
+        <v>821.0936406345397</v>
       </c>
       <c r="C41" t="n">
-        <v>430.0207235742614</v>
+        <v>688.9169354919849</v>
       </c>
       <c r="D41" t="n">
-        <v>430.0207235742614</v>
+        <v>688.9169354919849</v>
       </c>
       <c r="E41" t="n">
-        <v>430.0207235742614</v>
+        <v>688.9169354919849</v>
       </c>
       <c r="F41" t="n">
-        <v>430.0207235742614</v>
+        <v>688.9169354919849</v>
       </c>
       <c r="G41" t="n">
-        <v>430.0207235742614</v>
+        <v>338.8556950160877</v>
       </c>
       <c r="H41" t="n">
-        <v>118.8898788038648</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="I41" t="n">
         <v>27.72485024569106</v>
       </c>
       <c r="J41" t="n">
-        <v>58.27700866085739</v>
+        <v>275.9043523873164</v>
       </c>
       <c r="K41" t="n">
-        <v>145.2918203700023</v>
+        <v>560.7321944559628</v>
       </c>
       <c r="L41" t="n">
-        <v>468.0740630600982</v>
+        <v>698.6644442667158</v>
       </c>
       <c r="M41" t="n">
-        <v>647.2816855971682</v>
+        <v>877.8720668037859</v>
       </c>
       <c r="N41" t="n">
-        <v>833.1377941304909</v>
+        <v>1063.728175337108</v>
       </c>
       <c r="O41" t="n">
-        <v>997.8015473962001</v>
+        <v>1228.391928602818</v>
       </c>
       <c r="P41" t="n">
         <v>1340.896569186627</v>
@@ -7453,10 +7453,10 @@
         <v>821.0936406345397</v>
       </c>
       <c r="X41" t="n">
-        <v>471.0324001586425</v>
+        <v>821.0936406345397</v>
       </c>
       <c r="Y41" t="n">
-        <v>471.0324001586425</v>
+        <v>821.0936406345397</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>425.6413961539373</v>
+        <v>174.7528601888198</v>
       </c>
       <c r="C42" t="n">
-        <v>425.6413961539373</v>
+        <v>174.7528601888198</v>
       </c>
       <c r="D42" t="n">
-        <v>425.6413961539373</v>
+        <v>174.7528601888198</v>
       </c>
       <c r="E42" t="n">
-        <v>408.3738061379694</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="F42" t="n">
-        <v>273.6800080878437</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="G42" t="n">
-        <v>146.0847099162547</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="H42" t="n">
-        <v>57.09119621246282</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="I42" t="n">
         <v>27.72485024569106</v>
       </c>
       <c r="J42" t="n">
-        <v>30.63200584196891</v>
+        <v>192.9111683250751</v>
       </c>
       <c r="K42" t="n">
-        <v>99.10159288993961</v>
+        <v>342.4614256282682</v>
       </c>
       <c r="L42" t="n">
-        <v>228.8044670363559</v>
+        <v>472.1642997746844</v>
       </c>
       <c r="M42" t="n">
-        <v>395.8890588658433</v>
+        <v>639.2488916041718</v>
       </c>
       <c r="N42" t="n">
-        <v>738.9840806562702</v>
+        <v>822.4627393977107</v>
       </c>
       <c r="O42" t="n">
-        <v>1013.971692742973</v>
+        <v>972.0140327993313</v>
       </c>
       <c r="P42" t="n">
-        <v>1357.0667145334</v>
+        <v>1076.334014106394</v>
       </c>
       <c r="Q42" t="n">
-        <v>1386.242512284553</v>
+        <v>1375.879281173585</v>
       </c>
       <c r="R42" t="n">
         <v>1386.242512284553</v>
       </c>
       <c r="S42" t="n">
-        <v>1254.49175180918</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="T42" t="n">
-        <v>1070.374246479161</v>
+        <v>1202.125006954534</v>
       </c>
       <c r="U42" t="n">
-        <v>851.9540068278088</v>
+        <v>983.7047673031816</v>
       </c>
       <c r="V42" t="n">
-        <v>623.5583842761428</v>
+        <v>755.3091447515155</v>
       </c>
       <c r="W42" t="n">
-        <v>623.5583842761428</v>
+        <v>513.9932759848256</v>
       </c>
       <c r="X42" t="n">
-        <v>425.6413961539373</v>
+        <v>367.274186539241</v>
       </c>
       <c r="Y42" t="n">
-        <v>425.6413961539373</v>
+        <v>174.7528601888198</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>668.7171258888193</v>
+        <v>566.0266054225533</v>
       </c>
       <c r="C43" t="n">
-        <v>499.1011563504996</v>
+        <v>566.0266054225533</v>
       </c>
       <c r="D43" t="n">
-        <v>499.1011563504996</v>
+        <v>566.0266054225533</v>
       </c>
       <c r="E43" t="n">
-        <v>499.1011563504996</v>
+        <v>414.0175911838721</v>
       </c>
       <c r="F43" t="n">
-        <v>346.6205013762767</v>
+        <v>261.5369362096492</v>
       </c>
       <c r="G43" t="n">
-        <v>178.6507910708289</v>
+        <v>143.3576511454603</v>
       </c>
       <c r="H43" t="n">
-        <v>27.72485024569106</v>
+        <v>143.3576511454603</v>
       </c>
       <c r="I43" t="n">
         <v>27.72485024569106</v>
@@ -7593,28 +7593,28 @@
         <v>1386.242512284553</v>
       </c>
       <c r="R43" t="n">
-        <v>1386.242512284553</v>
+        <v>1279.437908752285</v>
       </c>
       <c r="S43" t="n">
-        <v>1189.089326709041</v>
+        <v>1082.284723176773</v>
       </c>
       <c r="T43" t="n">
-        <v>1189.089326709041</v>
+        <v>853.165024661088</v>
       </c>
       <c r="U43" t="n">
-        <v>1189.089326709041</v>
+        <v>566.0266054225533</v>
       </c>
       <c r="V43" t="n">
-        <v>928.3540222674633</v>
+        <v>566.0266054225533</v>
       </c>
       <c r="W43" t="n">
-        <v>852.2724945731991</v>
+        <v>566.0266054225533</v>
       </c>
       <c r="X43" t="n">
-        <v>852.2724945731991</v>
+        <v>566.0266054225533</v>
       </c>
       <c r="Y43" t="n">
-        <v>852.2724945731991</v>
+        <v>566.0266054225533</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>431.4041308451738</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="C44" t="n">
-        <v>431.4041308451738</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="D44" t="n">
-        <v>81.34289036927657</v>
+        <v>1036.181271808656</v>
       </c>
       <c r="E44" t="n">
-        <v>81.34289036927657</v>
+        <v>686.1200313327583</v>
       </c>
       <c r="F44" t="n">
-        <v>81.34289036927657</v>
+        <v>336.0587908568612</v>
       </c>
       <c r="G44" t="n">
-        <v>81.34289036927657</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="H44" t="n">
         <v>27.72485024569106</v>
@@ -7648,25 +7648,25 @@
         <v>27.72485024569106</v>
       </c>
       <c r="J44" t="n">
-        <v>275.9043523873164</v>
+        <v>200.4679897675209</v>
       </c>
       <c r="K44" t="n">
-        <v>362.9191640964613</v>
+        <v>287.4828014766658</v>
       </c>
       <c r="L44" t="n">
-        <v>500.8514139072142</v>
+        <v>425.4150512874188</v>
       </c>
       <c r="M44" t="n">
-        <v>680.0590364442843</v>
+        <v>604.6226738244889</v>
       </c>
       <c r="N44" t="n">
-        <v>865.9151449776069</v>
+        <v>790.4787823578115</v>
       </c>
       <c r="O44" t="n">
-        <v>1030.578898243316</v>
+        <v>955.1425356235208</v>
       </c>
       <c r="P44" t="n">
-        <v>1340.896569186627</v>
+        <v>1067.64717620733</v>
       </c>
       <c r="Q44" t="n">
         <v>1386.242512284553</v>
@@ -7681,19 +7681,19 @@
         <v>1386.242512284553</v>
       </c>
       <c r="U44" t="n">
-        <v>1131.526611796968</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="V44" t="n">
-        <v>1131.526611796968</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="W44" t="n">
-        <v>781.465371321071</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="X44" t="n">
-        <v>781.465371321071</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="Y44" t="n">
-        <v>431.4041308451738</v>
+        <v>1386.242512284553</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>464.0518311194542</v>
+        <v>757.1115781849358</v>
       </c>
       <c r="C45" t="n">
-        <v>302.3481583604089</v>
+        <v>595.4079054258905</v>
       </c>
       <c r="D45" t="n">
-        <v>302.3481583604089</v>
+        <v>456.5692684161025</v>
       </c>
       <c r="E45" t="n">
-        <v>155.3201484172801</v>
+        <v>309.5412584729738</v>
       </c>
       <c r="F45" t="n">
-        <v>155.3201484172801</v>
+        <v>174.8474604228481</v>
       </c>
       <c r="G45" t="n">
-        <v>27.72485024569106</v>
+        <v>47.25216225125908</v>
       </c>
       <c r="H45" t="n">
-        <v>27.72485024569106</v>
+        <v>47.25216225125908</v>
       </c>
       <c r="I45" t="n">
         <v>27.72485024569106</v>
       </c>
       <c r="J45" t="n">
-        <v>30.63200584196891</v>
+        <v>192.9111683250751</v>
       </c>
       <c r="K45" t="n">
-        <v>99.10159288993961</v>
+        <v>261.3807553730458</v>
       </c>
       <c r="L45" t="n">
-        <v>228.8044670363559</v>
+        <v>391.0836295194621</v>
       </c>
       <c r="M45" t="n">
-        <v>395.8890588658433</v>
+        <v>558.1682213489495</v>
       </c>
       <c r="N45" t="n">
-        <v>579.1029066593823</v>
+        <v>741.3820691424884</v>
       </c>
       <c r="O45" t="n">
-        <v>743.6022234269352</v>
+        <v>890.9333625441091</v>
       </c>
       <c r="P45" t="n">
-        <v>1086.697245217362</v>
+        <v>1076.334014106394</v>
       </c>
       <c r="Q45" t="n">
-        <v>1386.242512284553</v>
+        <v>1375.879281173585</v>
       </c>
       <c r="R45" t="n">
         <v>1386.242512284553</v>
       </c>
       <c r="S45" t="n">
-        <v>1254.49175180918</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="T45" t="n">
-        <v>1070.374246479161</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="U45" t="n">
-        <v>851.9540068278088</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="V45" t="n">
-        <v>851.9540068278088</v>
+        <v>1157.846889732887</v>
       </c>
       <c r="W45" t="n">
-        <v>821.3882620229205</v>
+        <v>916.5310209661967</v>
       </c>
       <c r="X45" t="n">
-        <v>623.471273900715</v>
+        <v>916.5310209661967</v>
       </c>
       <c r="Y45" t="n">
-        <v>623.471273900715</v>
+        <v>916.5310209661967</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>447.5744971689852</v>
+        <v>651.1101705891808</v>
       </c>
       <c r="C46" t="n">
-        <v>277.9585276306655</v>
+        <v>651.1101705891808</v>
       </c>
       <c r="D46" t="n">
-        <v>277.9585276306655</v>
+        <v>651.1101705891808</v>
       </c>
       <c r="E46" t="n">
-        <v>277.9585276306655</v>
+        <v>499.1011563504996</v>
       </c>
       <c r="F46" t="n">
-        <v>277.9585276306655</v>
+        <v>346.6205013762767</v>
       </c>
       <c r="G46" t="n">
-        <v>277.9585276306655</v>
+        <v>178.6507910708289</v>
       </c>
       <c r="H46" t="n">
-        <v>143.3576511454603</v>
+        <v>27.72485024569106</v>
       </c>
       <c r="I46" t="n">
         <v>27.72485024569106</v>
@@ -7809,16 +7809,16 @@
         <v>34.69382298257747</v>
       </c>
       <c r="K46" t="n">
-        <v>176.4786849811305</v>
+        <v>176.4786849811306</v>
       </c>
       <c r="L46" t="n">
-        <v>415.5197821238344</v>
+        <v>415.5197821238346</v>
       </c>
       <c r="M46" t="n">
-        <v>679.4725500793052</v>
+        <v>679.4725500793054</v>
       </c>
       <c r="N46" t="n">
-        <v>940.3835686454991</v>
+        <v>940.3835686454993</v>
       </c>
       <c r="O46" t="n">
         <v>1170.458570641955</v>
@@ -7830,28 +7830,28 @@
         <v>1386.242512284553</v>
       </c>
       <c r="R46" t="n">
-        <v>1279.437908752285</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="S46" t="n">
-        <v>1082.284723176773</v>
+        <v>1386.242512284553</v>
       </c>
       <c r="T46" t="n">
-        <v>853.165024661088</v>
+        <v>1157.122813768868</v>
       </c>
       <c r="U46" t="n">
-        <v>853.165024661088</v>
+        <v>869.9843945303335</v>
       </c>
       <c r="V46" t="n">
-        <v>853.165024661088</v>
+        <v>651.1101705891808</v>
       </c>
       <c r="W46" t="n">
-        <v>853.165024661088</v>
+        <v>651.1101705891808</v>
       </c>
       <c r="X46" t="n">
-        <v>853.165024661088</v>
+        <v>651.1101705891808</v>
       </c>
       <c r="Y46" t="n">
-        <v>631.129865853365</v>
+        <v>651.1101705891808</v>
       </c>
     </row>
   </sheetData>
@@ -8768,31 +8768,31 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>152.3426379034707</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>215.547623882839</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>161.4961353503918</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>81.89966692446687</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
-        <v>48.71026054161794</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8865,7 +8865,7 @@
         <v>211.9541662756472</v>
       </c>
       <c r="P13" t="n">
-        <v>175.5085323082532</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q13" t="n">
         <v>84.9458458910769</v>
@@ -8932,22 +8932,22 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>207.2351232117917</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>165.5428275286432</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>46.85879076053533</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>232.9195769763816</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.717164524589</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>43.45214625067439</v>
@@ -9005,10 +9005,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>277.3994290327839</v>
+        <v>81.89966692446703</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>195.4987155442487</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>46.02034234656965</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>258.6668788699817</v>
+        <v>157.8319421930716</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>158.827185108186</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.142677522802387</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>43.45214625067439</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>277.3994290327839</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>177.7883130918579</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>92.36757713756604</v>
       </c>
       <c r="Q18" t="n">
-        <v>74.19865501205953</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>48.71026054161794</v>
@@ -9400,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>219.8255997236959</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>143.6272536430945</v>
       </c>
       <c r="L20" t="n">
-        <v>34.26831424863113</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>165.5428275286433</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R20" t="n">
         <v>43.45214625067439</v>
@@ -9479,13 +9479,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>81.89966692446703</v>
       </c>
       <c r="L21" t="n">
-        <v>215.5476238828389</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>30.27038898415942</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>273.1004740566038</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L23" t="n">
-        <v>468.3472067817831</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,13 +9652,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>145.4605288591666</v>
+        <v>117.9726480593771</v>
       </c>
       <c r="P23" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>43.45214625067439</v>
@@ -9716,28 +9716,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>357.9916106816169</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>422.6082189203832</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>372.402211760369</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9877,19 +9877,19 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>332.0462845351515</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>441.3456881404131</v>
+        <v>352.0029363330507</v>
       </c>
       <c r="P26" t="n">
         <v>418.3383206229274</v>
@@ -9953,28 +9953,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>357.9916106816169</v>
       </c>
       <c r="M27" t="n">
-        <v>438.9003966618493</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>456.6107991142401</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>243.304043021015</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10114,25 +10114,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>421.3890363425141</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>468.3472067817831</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>426.6549110986346</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>419.9392686781774</v>
       </c>
       <c r="O29" t="n">
-        <v>441.3456881404131</v>
+        <v>138.5937060477961</v>
       </c>
       <c r="P29" t="n">
-        <v>314.7908802655876</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>276.0094878578761</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>43.45214625067439</v>
@@ -10211,10 +10211,10 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>164.9002874984893</v>
+        <v>154.4323772853906</v>
       </c>
       <c r="R30" t="n">
-        <v>48.71026054161794</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10360,19 +10360,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>275.862396400971</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>441.3456881404131</v>
+        <v>393.9821359172536</v>
       </c>
       <c r="P32" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q32" t="n">
-        <v>276.0094878578761</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>85.43134583487716</v>
+        <v>43.45214625067439</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,25 +10430,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>343.8048081163522</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>476.6597074528303</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>270.0641309755798</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>422.6082189203833</v>
       </c>
       <c r="O33" t="n">
-        <v>55.71815938441716</v>
+        <v>456.6107991142401</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>273.1004740566038</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>48.71026054161794</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>160.9698626309885</v>
+        <v>101.6480540588926</v>
       </c>
       <c r="K35" t="n">
-        <v>258.6668788699817</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R35" t="n">
-        <v>43.45214625067439</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,28 +10664,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>256.2859230800986</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>8.473200299529395</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>161.4961353503918</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>195.4987155442486</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>48.71026054161794</v>
@@ -10822,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
-        <v>212.1147143881241</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>165.5428275286432</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>199.8111417772745</v>
       </c>
       <c r="R38" t="n">
-        <v>85.43134583487716</v>
+        <v>43.45214625067439</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>81.89966692446703</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>195.4987155442486</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>169.969335649921</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
-        <v>48.71026054161794</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>199.8111417772743</v>
       </c>
       <c r="L41" t="n">
-        <v>186.7171645245888</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>232.9195769763816</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>81.89966692446703</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,19 +11150,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>161.4961353503918</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>126.7033522071538</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>241.1869095791558</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
-        <v>48.71026054161794</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236959</v>
+        <v>143.6272536430945</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11314,10 +11314,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>199.8111417772745</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R44" t="n">
         <v>43.45214625067439</v>
@@ -11375,7 +11375,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>15.09901350094174</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>241.1869095791558</v>
+        <v>81.89966692446687</v>
       </c>
       <c r="Q45" t="n">
         <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
-        <v>48.71026054161794</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K46" t="n">
-        <v>138.7668962480481</v>
+        <v>138.7668962480483</v>
       </c>
       <c r="L46" t="n">
         <v>211.2171120040207</v>
@@ -11472,7 +11472,7 @@
         <v>211.9541662756472</v>
       </c>
       <c r="P46" t="n">
-        <v>175.5085323082534</v>
+        <v>175.5085323082532</v>
       </c>
       <c r="Q46" t="n">
         <v>84.9458458910769</v>
@@ -23260,25 +23260,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
-        <v>378.1144210805207</v>
+        <v>31.5537930093825</v>
       </c>
       <c r="D11" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
-        <v>47.04616974145029</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
-        <v>63.44905071179318</v>
+        <v>195.012455850465</v>
       </c>
       <c r="G11" t="n">
         <v>409.8461786748886</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>308.0195363226926</v>
       </c>
       <c r="I11" t="n">
-        <v>90.253378272592</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W11" t="n">
-        <v>358.909580840975</v>
+        <v>12.34895276983679</v>
       </c>
       <c r="X11" t="n">
-        <v>31.6492110025834</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
-        <v>389.6064368699203</v>
+        <v>43.04580879878216</v>
       </c>
     </row>
     <row r="12">
@@ -23342,7 +23342,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>49.53762519623952</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>29.07268250710404</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,16 +23387,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>130.433252870619</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>182.2763302767183</v>
+        <v>107.0628595103235</v>
       </c>
       <c r="U12" t="n">
         <v>216.236037254839</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
         <v>238.9027100790231</v>
@@ -23424,19 +23424,19 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F13" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.2900132023933</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>149.4166814168865</v>
       </c>
       <c r="I13" t="n">
-        <v>114.4764728907715</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>105.7365574969456</v>
       </c>
       <c r="S13" t="n">
         <v>195.1816537197569</v>
       </c>
       <c r="T13" t="n">
-        <v>225.1631182314632</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>51.00225237749004</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23497,16 +23497,16 @@
         <v>43.54247605170076</v>
       </c>
       <c r="C14" t="n">
-        <v>378.1144210805207</v>
+        <v>31.5537930093825</v>
       </c>
       <c r="D14" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
-        <v>89.53997297254205</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F14" t="n">
-        <v>410.0096787829314</v>
+        <v>104.759077577873</v>
       </c>
       <c r="G14" t="n">
         <v>409.8461786748886</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>137.5765846914097</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.9367548623747</v>
       </c>
       <c r="U14" t="n">
         <v>252.1687414827087</v>
@@ -23576,13 +23576,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>133.3468600696244</v>
@@ -23591,10 +23591,10 @@
         <v>126.3193451898731</v>
       </c>
       <c r="H15" t="n">
-        <v>3.774023971376337</v>
+        <v>88.10357856675394</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.161657826461784</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>130.433252870619</v>
       </c>
       <c r="T15" t="n">
         <v>182.2763302767183</v>
@@ -23633,16 +23633,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="16">
@@ -23655,19 +23655,19 @@
         <v>181.719814997536</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D16" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E16" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.2900132023933</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>105.7365574969456</v>
       </c>
       <c r="S16" t="n">
-        <v>195.1816537197569</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>139.1930690079491</v>
       </c>
       <c r="U16" t="n">
-        <v>284.2670350461492</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>72.40521865465635</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,13 +23734,13 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
-        <v>378.1144210805207</v>
+        <v>31.5537930093825</v>
       </c>
       <c r="D17" t="n">
-        <v>369.0957251250487</v>
+        <v>276.7818787823649</v>
       </c>
       <c r="E17" t="n">
-        <v>44.27723462381601</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
         <v>410.0096787829314</v>
@@ -23785,22 +23785,22 @@
         <v>137.5765846914097</v>
       </c>
       <c r="T17" t="n">
-        <v>212.9367548623747</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>252.1687414827087</v>
       </c>
       <c r="V17" t="n">
-        <v>28.35888015795962</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
         <v>12.34895276983679</v>
       </c>
       <c r="X17" t="n">
-        <v>378.2098390737216</v>
+        <v>31.6492110025834</v>
       </c>
       <c r="Y17" t="n">
-        <v>43.04580879878216</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="18">
@@ -23810,19 +23810,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23861,22 +23861,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>130.433252870619</v>
+        <v>81.99167042879409</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>182.2763302767183</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
-        <v>60.52021754313435</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
-        <v>50.4042585550164</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>54.97478277824648</v>
       </c>
       <c r="G19" t="n">
-        <v>166.2900132023933</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>149.4166814168865</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>105.7365574969456</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>195.1816537197569</v>
       </c>
       <c r="T19" t="n">
         <v>226.8285015305278</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23971,16 +23971,16 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
-        <v>378.1144210805207</v>
+        <v>31.5537930093825</v>
       </c>
       <c r="D20" t="n">
-        <v>319.9665768853452</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
-        <v>390.8378626949542</v>
+        <v>44.27723462381601</v>
       </c>
       <c r="F20" t="n">
-        <v>410.0096787829314</v>
+        <v>104.759077577873</v>
       </c>
       <c r="G20" t="n">
         <v>409.8461786748886</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>137.5765846914097</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.9367548623747</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>252.1687414827087</v>
       </c>
       <c r="V20" t="n">
         <v>333.6094813630181</v>
@@ -24037,7 +24037,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
-        <v>43.04580879878216</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="21">
@@ -24050,10 +24050,10 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>145.5577298436975</v>
@@ -24062,7 +24062,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>126.3193451898731</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>88.10357856675394</v>
@@ -24098,13 +24098,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>130.433252870619</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>168.8977856757204</v>
       </c>
       <c r="U21" t="n">
-        <v>195.648078748231</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -24141,7 +24141,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>166.2900132023933</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>149.4166814168865</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>105.7365574969456</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>195.1816537197569</v>
       </c>
       <c r="T22" t="n">
         <v>226.8285015305278</v>
       </c>
       <c r="U22" t="n">
-        <v>284.2670350461492</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>37.67493478970022</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>95.80209837822949</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>308.0195363226926</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>47.7075824547507</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,10 +24259,10 @@
         <v>137.5765846914097</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.9367548623747</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>252.1687414827087</v>
       </c>
       <c r="V23" t="n">
         <v>333.6094813630181</v>
@@ -24271,7 +24271,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
-        <v>155.7060367171034</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24375,13 +24375,13 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>149.4166814168865</v>
+        <v>118.9212874843296</v>
       </c>
       <c r="I25" t="n">
         <v>114.4764728907715</v>
@@ -24414,25 +24414,25 @@
         <v>105.7365574969456</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>195.1816537197569</v>
       </c>
       <c r="T25" t="n">
-        <v>226.8285015305278</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>284.2670350461492</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>62.04381263440868</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -24445,22 +24445,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>370.2018831209017</v>
       </c>
       <c r="D26" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>377.4797035067772</v>
+        <v>409.8461786748886</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>308.0195363226926</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>105.7365574969456</v>
       </c>
       <c r="S28" t="n">
         <v>195.1816537197569</v>
       </c>
       <c r="T28" t="n">
-        <v>33.13720473973177</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>156.3405867063641</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>409.8461786748886</v>
       </c>
       <c r="H29" t="n">
-        <v>308.0195363226926</v>
+        <v>109.47827035022</v>
       </c>
       <c r="I29" t="n">
         <v>90.253378272592</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>137.5765846914097</v>
       </c>
       <c r="T29" t="n">
-        <v>212.9367548623747</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>252.1687414827087</v>
       </c>
       <c r="V29" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
-        <v>349.0701512293632</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>151.5411742405149</v>
@@ -24849,7 +24849,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F31" t="n">
-        <v>150.9558484244806</v>
+        <v>143.72908546159</v>
       </c>
       <c r="G31" t="n">
         <v>166.2900132023933</v>
@@ -24858,7 +24858,7 @@
         <v>149.4166814168865</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>114.4764728907715</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>105.7365574969456</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>195.1816537197569</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>284.2670350461492</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y31" t="n">
-        <v>59.50049388248513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,19 +24925,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
-        <v>84.10700675278684</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8461786748886</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>308.0195363226926</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>90.253378272592</v>
+        <v>78.87286206098528</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.9367548623747</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>252.1687414827087</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C34" t="n">
-        <v>29.08386630967013</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>150.4889240962943</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>105.7365574969456</v>
       </c>
       <c r="S34" t="n">
-        <v>195.1816537197569</v>
+        <v>110.0851096402115</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>284.2670350461492</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,19 +25156,19 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
-        <v>31.5537930093825</v>
+        <v>31.55379300938228</v>
       </c>
       <c r="D35" t="n">
-        <v>369.0957251250487</v>
+        <v>22.53509705391025</v>
       </c>
       <c r="E35" t="n">
-        <v>44.27723462381601</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
-        <v>410.0096787829314</v>
+        <v>317.6958324402474</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8461786748886</v>
+        <v>63.28555060375021</v>
       </c>
       <c r="H35" t="n">
         <v>308.0195363226926</v>
@@ -25207,13 +25207,13 @@
         <v>137.5765846914097</v>
       </c>
       <c r="T35" t="n">
-        <v>212.9367548623747</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>252.1687414827087</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
         <v>358.909580840975</v>
@@ -25222,7 +25222,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
-        <v>323.5734304394506</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="36">
@@ -25232,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D36" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F36" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>126.3193451898731</v>
+        <v>78.99161072143377</v>
       </c>
       <c r="H36" t="n">
         <v>88.10357856675394</v>
@@ -25283,19 +25283,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>77.8520165896353</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>182.2763302767183</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>216.236037254839</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C37" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -25323,16 +25323,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.2900132023933</v>
+        <v>105.7775680996086</v>
       </c>
       <c r="H37" t="n">
         <v>149.4166814168865</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>114.4764728907715</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>226.8285015305278</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>284.2670350461492</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>182.7038758491177</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="38">
@@ -25402,13 +25402,13 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
-        <v>410.0096787829314</v>
+        <v>63.44905071179318</v>
       </c>
       <c r="G38" t="n">
         <v>409.8461786748886</v>
       </c>
       <c r="H38" t="n">
-        <v>308.0195363226926</v>
+        <v>215.7056899800089</v>
       </c>
       <c r="I38" t="n">
         <v>90.253378272592</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>32.31159164060598</v>
+        <v>137.5765846914097</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>252.1687414827087</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
-        <v>12.34895276983684</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>378.2098390737216</v>
+        <v>31.6492110025834</v>
       </c>
       <c r="Y38" t="n">
-        <v>43.04580879878222</v>
+        <v>43.04580879878216</v>
       </c>
     </row>
     <row r="39">
@@ -25472,22 +25472,22 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D39" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>88.01873733365284</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>126.3193451898731</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>88.10357856675394</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>29.07268250710404</v>
@@ -25523,13 +25523,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>182.2763302767183</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>62.01339218256408</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y39" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>120.6798311586215</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>166.2900132023933</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>149.4166814168865</v>
+        <v>28.80246227076326</v>
       </c>
       <c r="I40" t="n">
         <v>114.4764728907715</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>105.7365574969456</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>226.8285015305278</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X40" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>349.5015443043017</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>378.1144210805207</v>
+        <v>247.2594829893914</v>
       </c>
       <c r="D41" t="n">
         <v>369.0957251250487</v>
@@ -25642,13 +25642,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8461786748886</v>
+        <v>63.28555060375044</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>90.253378272592</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>12.34895276983679</v>
       </c>
       <c r="X41" t="n">
-        <v>31.6492110025834</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
         <v>389.6064368699203</v>
@@ -25715,19 +25715,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E42" t="n">
-        <v>128.4628157278892</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>126.3193451898731</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>88.10357856675394</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>29.07268250710404</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,7 +25757,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>130.433252870619</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25769,13 +25769,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>50.68591968985461</v>
       </c>
       <c r="Y42" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>49.29252098884626</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>149.4166814168865</v>
       </c>
       <c r="I43" t="n">
-        <v>114.4764728907715</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>105.7365574969456</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>226.8285015305278</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>284.2670350461492</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
-        <v>207.9741250504533</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X43" t="n">
         <v>228.939939463578</v>
@@ -25873,16 +25873,16 @@
         <v>22.53509705391048</v>
       </c>
       <c r="E44" t="n">
-        <v>390.8378626949542</v>
+        <v>44.27723462381601</v>
       </c>
       <c r="F44" t="n">
-        <v>410.0096787829314</v>
+        <v>63.44905071179318</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8461786748886</v>
+        <v>104.5955774698303</v>
       </c>
       <c r="H44" t="n">
-        <v>254.9376766003429</v>
+        <v>308.0195363226926</v>
       </c>
       <c r="I44" t="n">
         <v>90.253378272592</v>
@@ -25921,19 +25921,19 @@
         <v>212.9367548623747</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>252.1687414827087</v>
       </c>
       <c r="V44" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
-        <v>12.34895276983679</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
-        <v>43.04580879878216</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="45">
@@ -25949,13 +25949,13 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -25964,7 +25964,7 @@
         <v>88.10357856675394</v>
       </c>
       <c r="I45" t="n">
-        <v>29.07268250710404</v>
+        <v>9.740643621591698</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,22 +25994,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>130.433252870619</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>182.2763302767183</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>216.236037254839</v>
       </c>
       <c r="V45" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>208.6426227221836</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y45" t="n">
         <v>190.5961130869169</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.2900132023933</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>16.16181369653336</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>114.4764728907715</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>105.7365574969456</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>195.1816537197569</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>284.2670350461492</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>258.1279513971616</v>
+        <v>41.4424696954205</v>
       </c>
       <c r="W46" t="n">
         <v>283.2948374677749</v>
@@ -26091,7 +26091,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>469394.8545242934</v>
+        <v>469394.8545242933</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>469394.8545242936</v>
+        <v>469394.8545242935</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>643286.3370950248</v>
+        <v>643286.3370950245</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>643286.3370950245</v>
+        <v>643286.3370950248</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>469394.8545242934</v>
+        <v>469394.8545242937</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>469394.8545242934</v>
+        <v>469394.8545242935</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>516966.7262674303</v>
+        <v>516966.7262674304</v>
       </c>
       <c r="C2" t="n">
-        <v>516966.7262674304</v>
+        <v>516966.7262674306</v>
       </c>
       <c r="D2" t="n">
-        <v>516966.7262674304</v>
+        <v>516966.7262674305</v>
       </c>
       <c r="E2" t="n">
-        <v>275625.4986076752</v>
+        <v>275625.4986076753</v>
       </c>
       <c r="F2" t="n">
-        <v>275625.4986076753</v>
+        <v>275625.4986076751</v>
       </c>
       <c r="G2" t="n">
         <v>275625.4986076751</v>
@@ -26337,22 +26337,22 @@
         <v>359072.7113898576</v>
       </c>
       <c r="J2" t="n">
-        <v>359072.7113898573</v>
+        <v>359072.7113898576</v>
       </c>
       <c r="K2" t="n">
-        <v>359072.7113898574</v>
+        <v>359072.7113898575</v>
       </c>
       <c r="L2" t="n">
         <v>359072.7113898575</v>
       </c>
       <c r="M2" t="n">
-        <v>275625.4986076752</v>
+        <v>275625.4986076754</v>
       </c>
       <c r="N2" t="n">
-        <v>275625.4986076751</v>
+        <v>275625.4986076753</v>
       </c>
       <c r="O2" t="n">
-        <v>275625.4986076752</v>
+        <v>275625.4986076753</v>
       </c>
       <c r="P2" t="n">
         <v>275625.4986076753</v>
@@ -26377,7 +26377,7 @@
         <v>522507.1185495599</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>8.041615094651678e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>69435.18637501566</v>
+        <v>69435.18637501568</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>21294.11908386379</v>
+        <v>21294.1190838638</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26435,10 +26435,10 @@
         <v>30736.24768579378</v>
       </c>
       <c r="H4" t="n">
-        <v>30736.24768579378</v>
+        <v>30736.24768579379</v>
       </c>
       <c r="I4" t="n">
-        <v>71919.52070537602</v>
+        <v>71919.520705376</v>
       </c>
       <c r="J4" t="n">
         <v>71919.520705376</v>
@@ -26450,10 +26450,10 @@
         <v>71919.520705376</v>
       </c>
       <c r="M4" t="n">
-        <v>30736.24768579378</v>
+        <v>30736.24768579383</v>
       </c>
       <c r="N4" t="n">
-        <v>30736.24768579377</v>
+        <v>30736.24768579379</v>
       </c>
       <c r="O4" t="n">
         <v>30736.24768579379</v>
@@ -26502,10 +26502,10 @@
         <v>48316.74956941749</v>
       </c>
       <c r="M5" t="n">
+        <v>32441.13488836202</v>
+      </c>
+      <c r="N5" t="n">
         <v>32441.13488836201</v>
-      </c>
-      <c r="N5" t="n">
-        <v>32441.134888362</v>
       </c>
       <c r="O5" t="n">
         <v>32441.13488836201</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>90806.21787430596</v>
+        <v>90762.53214963411</v>
       </c>
       <c r="C6" t="n">
-        <v>90806.21787430602</v>
+        <v>90762.53214963428</v>
       </c>
       <c r="D6" t="n">
-        <v>90806.21787430602</v>
+        <v>90762.53214963416</v>
       </c>
       <c r="E6" t="n">
-        <v>-310059.0025160405</v>
+        <v>-319041.2522281107</v>
       </c>
       <c r="F6" t="n">
-        <v>212448.1160335195</v>
+        <v>203465.866321449</v>
       </c>
       <c r="G6" t="n">
-        <v>212448.1160335193</v>
+        <v>203465.866321449</v>
       </c>
       <c r="H6" t="n">
-        <v>212448.1160335195</v>
+        <v>203465.8663214492</v>
       </c>
       <c r="I6" t="n">
-        <v>169401.2547400484</v>
+        <v>163509.6425384294</v>
       </c>
       <c r="J6" t="n">
-        <v>238836.4411150638</v>
+        <v>232944.8289134451</v>
       </c>
       <c r="K6" t="n">
-        <v>238836.4411150639</v>
+        <v>232944.8289134449</v>
       </c>
       <c r="L6" t="n">
-        <v>238836.441115064</v>
+        <v>232944.8289134449</v>
       </c>
       <c r="M6" t="n">
-        <v>191153.9969496556</v>
+        <v>182171.7472375854</v>
       </c>
       <c r="N6" t="n">
-        <v>212448.1160335194</v>
+        <v>203465.8663214492</v>
       </c>
       <c r="O6" t="n">
-        <v>212448.1160335194</v>
+        <v>203465.8663214492</v>
       </c>
       <c r="P6" t="n">
-        <v>212448.1160335195</v>
+        <v>203465.8663214492</v>
       </c>
     </row>
   </sheetData>
@@ -26822,10 +26822,10 @@
         <v>607.6727116411296</v>
       </c>
       <c r="M4" t="n">
+        <v>346.5606280711384</v>
+      </c>
+      <c r="N4" t="n">
         <v>346.5606280711382</v>
-      </c>
-      <c r="N4" t="n">
-        <v>346.5606280711381</v>
       </c>
       <c r="O4" t="n">
         <v>346.5606280711382</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>346.5606280711382</v>
+        <v>346.5606280711381</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2.806591755949435e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>261.1120835699913</v>
+        <v>261.1120835699914</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>85.44854450114681</v>
+        <v>85.44854450114686</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>346.5606280711382</v>
+        <v>346.5606280711381</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2.806591755949435e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2.936520804321063</v>
+        <v>166.8548667468526</v>
       </c>
       <c r="K12" t="n">
-        <v>221.503836941825</v>
+        <v>69.16119903835425</v>
       </c>
       <c r="L12" t="n">
-        <v>346.5606280711382</v>
+        <v>131.0130041882992</v>
       </c>
       <c r="M12" t="n">
         <v>168.7723149792803</v>
       </c>
       <c r="N12" t="n">
-        <v>346.5606280711382</v>
+        <v>185.0644927207464</v>
       </c>
       <c r="O12" t="n">
         <v>151.0619125268895</v>
       </c>
       <c r="P12" t="n">
-        <v>105.3737184919824</v>
+        <v>187.2733854164493</v>
       </c>
       <c r="Q12" t="n">
-        <v>29.47050277894239</v>
+        <v>302.5709768355462</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.46791021309912</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35585,7 +35585,7 @@
         <v>232.3989919156118</v>
       </c>
       <c r="P13" t="n">
-        <v>177.3583181043307</v>
+        <v>177.3583181043309</v>
       </c>
       <c r="Q13" t="n">
         <v>40.60525931243461</v>
@@ -35652,22 +35652,22 @@
         <v>87.89374920115645</v>
       </c>
       <c r="L14" t="n">
-        <v>139.3255048593464</v>
+        <v>346.5606280711382</v>
       </c>
       <c r="M14" t="n">
-        <v>181.017800542495</v>
+        <v>346.5606280711382</v>
       </c>
       <c r="N14" t="n">
-        <v>187.7334429629522</v>
+        <v>234.5922337234875</v>
       </c>
       <c r="O14" t="n">
         <v>166.3270235007165</v>
       </c>
       <c r="P14" t="n">
-        <v>346.5606280711382</v>
+        <v>113.6410510947566</v>
       </c>
       <c r="Q14" t="n">
-        <v>232.5211474517867</v>
+        <v>45.80398292719772</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.936520804321063</v>
+        <v>166.8548667468526</v>
       </c>
       <c r="K15" t="n">
-        <v>346.5606280711382</v>
+        <v>151.0608659628213</v>
       </c>
       <c r="L15" t="n">
         <v>131.0130041882992</v>
@@ -35740,13 +35740,13 @@
         <v>185.0644927207464</v>
       </c>
       <c r="O15" t="n">
-        <v>346.5606280711382</v>
+        <v>151.0619125268895</v>
       </c>
       <c r="P15" t="n">
-        <v>151.3940608385521</v>
+        <v>105.3737184919824</v>
       </c>
       <c r="Q15" t="n">
-        <v>29.47050277894239</v>
+        <v>302.5709768355462</v>
       </c>
       <c r="R15" t="n">
         <v>10.46791021309912</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>30.8607660759256</v>
+        <v>250.6863657996215</v>
       </c>
       <c r="K17" t="n">
-        <v>346.5606280711382</v>
+        <v>245.725691394228</v>
       </c>
       <c r="L17" t="n">
         <v>139.3255048593464</v>
@@ -35895,7 +35895,7 @@
         <v>181.017800542495</v>
       </c>
       <c r="N17" t="n">
-        <v>346.5606280711382</v>
+        <v>187.7334429629522</v>
       </c>
       <c r="O17" t="n">
         <v>166.3270235007165</v>
@@ -35904,10 +35904,10 @@
         <v>113.6410510947566</v>
       </c>
       <c r="Q17" t="n">
-        <v>47.94666045000011</v>
+        <v>45.80398292719772</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>41.97919958420277</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.936520804321063</v>
+        <v>166.8548667468526</v>
       </c>
       <c r="K18" t="n">
-        <v>346.5606280711382</v>
+        <v>69.16119903835425</v>
       </c>
       <c r="L18" t="n">
         <v>131.0130041882992</v>
       </c>
       <c r="M18" t="n">
-        <v>346.5606280711382</v>
+        <v>168.7723149792803</v>
       </c>
       <c r="N18" t="n">
         <v>185.0644927207464</v>
@@ -35980,10 +35980,10 @@
         <v>151.0619125268895</v>
       </c>
       <c r="P18" t="n">
-        <v>105.3737184919824</v>
+        <v>197.7412956295485</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.6691577910019</v>
+        <v>302.5709768355462</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>250.6863657996215</v>
+        <v>30.8607660759256</v>
       </c>
       <c r="K20" t="n">
-        <v>87.89374920115645</v>
+        <v>231.5210028442509</v>
       </c>
       <c r="L20" t="n">
-        <v>173.5938191079776</v>
+        <v>139.3255048593464</v>
       </c>
       <c r="M20" t="n">
-        <v>346.5606280711382</v>
+        <v>181.017800542495</v>
       </c>
       <c r="N20" t="n">
         <v>187.7334429629522</v>
@@ -36141,7 +36141,7 @@
         <v>113.6410510947566</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.80398292719772</v>
+        <v>321.8134707850738</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.936520804321063</v>
+        <v>166.8548667468526</v>
       </c>
       <c r="K21" t="n">
-        <v>69.16119903835425</v>
+        <v>151.0608659628213</v>
       </c>
       <c r="L21" t="n">
-        <v>346.5606280711382</v>
+        <v>131.0130041882992</v>
       </c>
       <c r="M21" t="n">
         <v>168.7723149792803</v>
@@ -36217,7 +36217,7 @@
         <v>151.0619125268895</v>
       </c>
       <c r="P21" t="n">
-        <v>135.6441074761418</v>
+        <v>105.3737184919824</v>
       </c>
       <c r="Q21" t="n">
         <v>302.5709768355462</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>30.8607660759256</v>
+        <v>250.6863657996215</v>
       </c>
       <c r="K23" t="n">
         <v>509.2827855436706</v>
       </c>
       <c r="L23" t="n">
-        <v>607.6727116411296</v>
+        <v>139.3255048593464</v>
       </c>
       <c r="M23" t="n">
         <v>181.017800542495</v>
@@ -36372,13 +36372,13 @@
         <v>187.7334429629522</v>
       </c>
       <c r="O23" t="n">
-        <v>311.7875523598831</v>
+        <v>284.2996715600936</v>
       </c>
       <c r="P23" t="n">
         <v>531.979371717684</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.80398292719772</v>
+        <v>321.8134707850738</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.936520804321063</v>
+        <v>166.8548667468526</v>
       </c>
       <c r="K24" t="n">
         <v>412.9660071547065</v>
       </c>
       <c r="L24" t="n">
-        <v>131.0130041882992</v>
+        <v>489.0046148699162</v>
       </c>
       <c r="M24" t="n">
         <v>168.7723149792803</v>
       </c>
       <c r="N24" t="n">
-        <v>607.6727116411296</v>
+        <v>185.0644927207464</v>
       </c>
       <c r="O24" t="n">
-        <v>523.4641242872585</v>
+        <v>151.0619125268895</v>
       </c>
       <c r="P24" t="n">
         <v>519.3753177239007</v>
       </c>
       <c r="Q24" t="n">
-        <v>29.47050277894239</v>
+        <v>302.5709768355462</v>
       </c>
       <c r="R24" t="n">
         <v>10.46791021309912</v>
@@ -36597,19 +36597,19 @@
         <v>250.6863657996215</v>
       </c>
       <c r="K26" t="n">
-        <v>87.89374920115645</v>
+        <v>509.2827855436706</v>
       </c>
       <c r="L26" t="n">
         <v>139.3255048593464</v>
       </c>
       <c r="M26" t="n">
-        <v>513.0640850776465</v>
+        <v>181.017800542495</v>
       </c>
       <c r="N26" t="n">
         <v>187.7334429629522</v>
       </c>
       <c r="O26" t="n">
-        <v>607.6727116411296</v>
+        <v>518.3299598337671</v>
       </c>
       <c r="P26" t="n">
         <v>531.979371717684</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.936520804321063</v>
+        <v>166.8548667468526</v>
       </c>
       <c r="K27" t="n">
-        <v>69.16119903835425</v>
+        <v>412.9660071547065</v>
       </c>
       <c r="L27" t="n">
-        <v>131.0130041882992</v>
+        <v>489.0046148699162</v>
       </c>
       <c r="M27" t="n">
-        <v>607.6727116411296</v>
+        <v>168.7723149792803</v>
       </c>
       <c r="N27" t="n">
         <v>185.0644927207464</v>
       </c>
       <c r="O27" t="n">
-        <v>607.6727116411296</v>
+        <v>151.0619125268895</v>
       </c>
       <c r="P27" t="n">
         <v>519.3753177239007</v>
       </c>
       <c r="Q27" t="n">
-        <v>272.7745457999574</v>
+        <v>302.5709768355462</v>
       </c>
       <c r="R27" t="n">
         <v>10.46791021309912</v>
@@ -36834,25 +36834,25 @@
         <v>30.8607660759256</v>
       </c>
       <c r="K29" t="n">
-        <v>509.2827855436706</v>
+        <v>87.89374920115645</v>
       </c>
       <c r="L29" t="n">
-        <v>139.3255048593464</v>
+        <v>607.6727116411296</v>
       </c>
       <c r="M29" t="n">
-        <v>181.017800542495</v>
+        <v>607.6727116411296</v>
       </c>
       <c r="N29" t="n">
-        <v>187.7334429629522</v>
+        <v>607.6727116411296</v>
       </c>
       <c r="O29" t="n">
-        <v>607.6727116411296</v>
+        <v>304.9207295485126</v>
       </c>
       <c r="P29" t="n">
-        <v>428.4319313603442</v>
+        <v>113.6410510947566</v>
       </c>
       <c r="Q29" t="n">
-        <v>321.8134707850738</v>
+        <v>45.80398292719772</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>519.3753177239007</v>
       </c>
       <c r="Q30" t="n">
-        <v>194.3707902774317</v>
+        <v>183.902880064333</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.46791021309912</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>30.8607660759256</v>
+        <v>250.6863657996215</v>
       </c>
       <c r="K32" t="n">
-        <v>87.89374920115645</v>
+        <v>509.2827855436706</v>
       </c>
       <c r="L32" t="n">
         <v>139.3255048593464</v>
@@ -37080,19 +37080,19 @@
         <v>181.017800542495</v>
       </c>
       <c r="N32" t="n">
-        <v>463.5958393639232</v>
+        <v>187.7334429629522</v>
       </c>
       <c r="O32" t="n">
-        <v>607.6727116411296</v>
+        <v>560.30915941797</v>
       </c>
       <c r="P32" t="n">
         <v>531.979371717684</v>
       </c>
       <c r="Q32" t="n">
-        <v>321.8134707850738</v>
+        <v>45.80398292719772</v>
       </c>
       <c r="R32" t="n">
-        <v>41.97919958420277</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>2.936520804321063</v>
       </c>
       <c r="K33" t="n">
-        <v>412.9660071547065</v>
+        <v>69.16119903835425</v>
       </c>
       <c r="L33" t="n">
+        <v>131.0130041882992</v>
+      </c>
+      <c r="M33" t="n">
+        <v>438.8364459548601</v>
+      </c>
+      <c r="N33" t="n">
         <v>607.6727116411296</v>
       </c>
-      <c r="M33" t="n">
-        <v>168.7723149792803</v>
-      </c>
-      <c r="N33" t="n">
-        <v>185.0644927207464</v>
-      </c>
       <c r="O33" t="n">
-        <v>206.7800719113067</v>
+        <v>607.6727116411296</v>
       </c>
       <c r="P33" t="n">
         <v>519.3753177239007</v>
       </c>
       <c r="Q33" t="n">
-        <v>302.5709768355462</v>
+        <v>29.47050277894239</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>191.8306287069141</v>
+        <v>132.5088201348182</v>
       </c>
       <c r="K35" t="n">
-        <v>346.5606280711382</v>
+        <v>87.89374920115645</v>
       </c>
       <c r="L35" t="n">
         <v>139.3255048593464</v>
@@ -37326,10 +37326,10 @@
         <v>113.6410510947566</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.80398292719772</v>
+        <v>321.8134707850738</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>41.97919958420277</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>166.8548667468526</v>
+        <v>2.936520804321063</v>
       </c>
       <c r="K36" t="n">
-        <v>69.16119903835425</v>
+        <v>325.4471221184529</v>
       </c>
       <c r="L36" t="n">
         <v>131.0130041882992</v>
       </c>
       <c r="M36" t="n">
-        <v>177.2455152788096</v>
+        <v>168.7723149792803</v>
       </c>
       <c r="N36" t="n">
-        <v>346.5606280711382</v>
+        <v>185.0644927207464</v>
       </c>
       <c r="O36" t="n">
-        <v>346.5606280711382</v>
+        <v>151.0619125268895</v>
       </c>
       <c r="P36" t="n">
         <v>105.3737184919824</v>
       </c>
       <c r="Q36" t="n">
-        <v>29.47050277894239</v>
+        <v>302.5709768355462</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>30.8607660759256</v>
+        <v>250.6863657996215</v>
       </c>
       <c r="K38" t="n">
-        <v>300.0084635892806</v>
+        <v>87.89374920115645</v>
       </c>
       <c r="L38" t="n">
         <v>139.3255048593464</v>
       </c>
       <c r="M38" t="n">
-        <v>346.5606280711381</v>
+        <v>181.017800542495</v>
       </c>
       <c r="N38" t="n">
         <v>187.7334429629522</v>
@@ -37563,10 +37563,10 @@
         <v>113.6410510947566</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.80398292719772</v>
+        <v>245.6151247044722</v>
       </c>
       <c r="R38" t="n">
-        <v>41.97919958420277</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>166.8548667468526</v>
       </c>
       <c r="K39" t="n">
-        <v>69.16119903835425</v>
+        <v>151.0608659628213</v>
       </c>
       <c r="L39" t="n">
         <v>131.0130041882992</v>
@@ -37636,16 +37636,16 @@
         <v>185.0644927207464</v>
       </c>
       <c r="O39" t="n">
-        <v>346.5606280711381</v>
+        <v>151.0619125268895</v>
       </c>
       <c r="P39" t="n">
         <v>105.3737184919824</v>
       </c>
       <c r="Q39" t="n">
-        <v>199.4398384288634</v>
+        <v>302.5709768355462</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.46791021309912</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37712,7 +37712,7 @@
         <v>266.6189575307785</v>
       </c>
       <c r="N40" t="n">
-        <v>263.5464834001954</v>
+        <v>263.5464834001958</v>
       </c>
       <c r="O40" t="n">
         <v>232.3989919156118</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>30.8607660759256</v>
+        <v>250.6863657996215</v>
       </c>
       <c r="K41" t="n">
-        <v>87.89374920115645</v>
+        <v>287.7048909784308</v>
       </c>
       <c r="L41" t="n">
-        <v>326.0426693839353</v>
+        <v>139.3255048593464</v>
       </c>
       <c r="M41" t="n">
         <v>181.017800542495</v>
@@ -37797,7 +37797,7 @@
         <v>166.3270235007165</v>
       </c>
       <c r="P41" t="n">
-        <v>346.5606280711382</v>
+        <v>113.6410510947566</v>
       </c>
       <c r="Q41" t="n">
         <v>45.80398292719772</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>2.936520804321063</v>
+        <v>166.8548667468526</v>
       </c>
       <c r="K42" t="n">
-        <v>69.16119903835425</v>
+        <v>151.0608659628213</v>
       </c>
       <c r="L42" t="n">
         <v>131.0130041882992</v>
@@ -37870,19 +37870,19 @@
         <v>168.7723149792803</v>
       </c>
       <c r="N42" t="n">
-        <v>346.5606280711382</v>
+        <v>185.0644927207464</v>
       </c>
       <c r="O42" t="n">
-        <v>277.7652647340433</v>
+        <v>151.0619125268895</v>
       </c>
       <c r="P42" t="n">
-        <v>346.5606280711382</v>
+        <v>105.3737184919824</v>
       </c>
       <c r="Q42" t="n">
-        <v>29.47050277894239</v>
+        <v>302.5709768355462</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.46791021309912</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>250.6863657996215</v>
+        <v>174.4880197190201</v>
       </c>
       <c r="K44" t="n">
         <v>87.89374920115645</v>
@@ -38034,10 +38034,10 @@
         <v>166.3270235007165</v>
       </c>
       <c r="P44" t="n">
-        <v>313.452192872031</v>
+        <v>113.6410510947566</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.80398292719772</v>
+        <v>321.8134707850738</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2.936520804321063</v>
+        <v>166.8548667468526</v>
       </c>
       <c r="K45" t="n">
         <v>69.16119903835425</v>
@@ -38110,16 +38110,16 @@
         <v>185.0644927207464</v>
       </c>
       <c r="O45" t="n">
-        <v>166.1609260278313</v>
+        <v>151.0619125268895</v>
       </c>
       <c r="P45" t="n">
-        <v>346.5606280711382</v>
+        <v>187.2733854164493</v>
       </c>
       <c r="Q45" t="n">
         <v>302.5709768355462</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.46791021309912</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>7.039366400895368</v>
       </c>
       <c r="K46" t="n">
-        <v>143.2170323217707</v>
+        <v>143.2170323217709</v>
       </c>
       <c r="L46" t="n">
         <v>241.455653679499</v>
@@ -38192,7 +38192,7 @@
         <v>232.3989919156118</v>
       </c>
       <c r="P46" t="n">
-        <v>177.3583181043309</v>
+        <v>177.3583181043307</v>
       </c>
       <c r="Q46" t="n">
         <v>40.60525931243461</v>
